--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1351698.05087589</v>
+        <v>1347296.861518726</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13513019.5940009</v>
+        <v>13513019.59400089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7267058.602073408</v>
+        <v>7267058.602073404</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6978720.275995333</v>
+        <v>6978720.275995335</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.13253818169839</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.0046627376192</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>213.4022345988317</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I12" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18.57691892535387</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I13" t="n">
         <v>107.5319498182078</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>95.42151095437569</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.7504255615991</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>182.4999779996636</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8981073592316</v>
+        <v>117.898107359232</v>
       </c>
       <c r="H15" t="n">
         <v>78.13211994615452</v>
       </c>
       <c r="I15" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.6725604359455</v>
+        <v>121.1668452459731</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.7657490199469</v>
@@ -1785,7 +1785,7 @@
         <v>146.7597880182415</v>
       </c>
       <c r="I16" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>356.2167639514032</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>327.0877498533033</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1943,7 +1943,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I18" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.7657490199469</v>
@@ -2022,7 +2022,7 @@
         <v>146.7597880182415</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>186.745648044267</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>130.4336433859646</v>
+        <v>80.57996233380427</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>127.3061572029463</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>274.2894564243352</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2171,7 +2171,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556996</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>117.8981073592315</v>
@@ -2180,7 +2180,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I21" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.7657490199469</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>171.1697486121456</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>222.6012471889212</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V23" t="n">
-        <v>220.4936487684875</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>158.2732484661305</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I24" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U25" t="n">
         <v>282.5404530582489</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.6502137086531</v>
+        <v>171.1044661707107</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>279.9100042953596</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H26" t="n">
         <v>302.4457255346815</v>
       </c>
       <c r="I26" t="n">
-        <v>60.58161979830893</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I27" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>140.9519025200423</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.7736410290676</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>158.2732484661305</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V29" t="n">
-        <v>246.2373559217376</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I30" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>229.9190500356943</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>84.21868623802672</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>171.1044661707107</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>302.4457255346815</v>
       </c>
       <c r="I32" t="n">
-        <v>67.70137418775225</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.7207812642581</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>53.68714034713273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I33" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>3.921489974215865</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I34" t="n">
         <v>107.5319498182078</v>
@@ -3237,22 +3237,22 @@
         <v>86.43188462317242</v>
       </c>
       <c r="S34" t="n">
-        <v>174.5516959232494</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T34" t="n">
         <v>229.9190500356943</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3283,10 +3283,10 @@
         <v>407.2348145777002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I35" t="n">
-        <v>67.70137418775225</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>57.21682027781107</v>
       </c>
       <c r="U35" t="n">
         <v>253.0514971994132</v>
       </c>
       <c r="V35" t="n">
-        <v>299.7905973813885</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3365,7 +3365,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I36" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>115.7291292324105</v>
       </c>
       <c r="T36" t="n">
-        <v>171.3400162880664</v>
+        <v>171.3400162880669</v>
       </c>
       <c r="U36" t="n">
         <v>207.89928080988</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>32.00731975406159</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>93.7081576672484</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5404530582489</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0514971994132</v>
+        <v>162.1062177332581</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>233.8907765139498</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I39" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -3678,10 +3678,10 @@
         <v>165.7657490199469</v>
       </c>
       <c r="H40" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>35.54496070509629</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>96.87709046576286</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>231.7110620614471</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>249.9154218828213</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.898107359232</v>
+        <v>117.8981073592315</v>
       </c>
       <c r="H42" t="n">
         <v>78.13211994615452</v>
       </c>
       <c r="I42" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897076</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>41.7594422443788</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>186.745648044267</v>
       </c>
       <c r="T43" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>168.2557729429307</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>407.2348145777002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.70137418775226</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>123.9149283803722</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V44" t="n">
-        <v>106.0407614165123</v>
+        <v>71.45514075706842</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.898107359232</v>
+        <v>117.8981073592315</v>
       </c>
       <c r="H45" t="n">
         <v>78.13211994615452</v>
       </c>
       <c r="I45" t="n">
-        <v>15.80245048970759</v>
+        <v>15.80245048970808</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -4149,10 +4149,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>114.0679847313314</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>63.43315403801464</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U46" t="n">
         <v>282.5404530582489</v>
@@ -4197,13 +4197,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>887.8399351137925</v>
+        <v>805.3447353780091</v>
       </c>
       <c r="C11" t="n">
-        <v>494.6644336167231</v>
+        <v>805.3447353780091</v>
       </c>
       <c r="D11" t="n">
-        <v>448.0659102008661</v>
+        <v>805.3447353780091</v>
       </c>
       <c r="E11" t="n">
-        <v>45.48238531741068</v>
+        <v>402.7612104945536</v>
       </c>
       <c r="F11" t="n">
-        <v>45.48238531741068</v>
+        <v>402.7612104945536</v>
       </c>
       <c r="G11" t="n">
-        <v>45.48238531741068</v>
+        <v>402.7612104945536</v>
       </c>
       <c r="H11" t="n">
-        <v>45.48238531741068</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I11" t="n">
         <v>45.48238531741068</v>
       </c>
       <c r="J11" t="n">
-        <v>341.0674123654735</v>
+        <v>341.0674123654734</v>
       </c>
       <c r="K11" t="n">
-        <v>425.6524132444051</v>
+        <v>720.1791230142813</v>
       </c>
       <c r="L11" t="n">
-        <v>554.5737315597923</v>
+        <v>849.1004413296686</v>
       </c>
       <c r="M11" t="n">
-        <v>718.6086730029797</v>
+        <v>1013.135382772856</v>
       </c>
       <c r="N11" t="n">
         <v>1182.823556508087</v>
@@ -5074,19 +5074,19 @@
         <v>1933.394858820833</v>
       </c>
       <c r="U11" t="n">
-        <v>1677.787285892133</v>
+        <v>1933.394858820833</v>
       </c>
       <c r="V11" t="n">
-        <v>1677.787285892133</v>
+        <v>1591.288049524351</v>
       </c>
       <c r="W11" t="n">
-        <v>1677.787285892133</v>
+        <v>1591.288049524351</v>
       </c>
       <c r="X11" t="n">
-        <v>1288.334680825189</v>
+        <v>1201.835444457408</v>
       </c>
       <c r="Y11" t="n">
-        <v>1288.334680825189</v>
+        <v>805.3447353780091</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>140.3657897980795</v>
       </c>
       <c r="H12" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913553</v>
       </c>
       <c r="I12" t="n">
         <v>45.48238531741068</v>
@@ -5123,25 +5123,25 @@
         <v>248.4933708924599</v>
       </c>
       <c r="K12" t="n">
-        <v>313.4389930714536</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L12" t="n">
-        <v>430.876048629542</v>
+        <v>1284.723623416637</v>
       </c>
       <c r="M12" t="n">
-        <v>993.7205669324991</v>
+        <v>1434.349092416839</v>
       </c>
       <c r="N12" t="n">
-        <v>1156.671796067894</v>
+        <v>1597.300321552234</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.516314370851</v>
+        <v>1731.925994225315</v>
       </c>
       <c r="P12" t="n">
-        <v>2242.739235575141</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q12" t="n">
-        <v>2274.119265870534</v>
+        <v>2238.483816316392</v>
       </c>
       <c r="R12" t="n">
         <v>2274.119265870534</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>309.7336295443988</v>
+        <v>801.4321885904374</v>
       </c>
       <c r="C13" t="n">
-        <v>309.7336295443988</v>
+        <v>782.6676240193729</v>
       </c>
       <c r="D13" t="n">
-        <v>154.1005164469135</v>
+        <v>782.6676240193729</v>
       </c>
       <c r="E13" t="n">
-        <v>154.1005164469135</v>
+        <v>627.1088118785754</v>
       </c>
       <c r="F13" t="n">
-        <v>154.1005164469135</v>
+        <v>469.7828770915484</v>
       </c>
       <c r="G13" t="n">
-        <v>154.1005164469135</v>
+        <v>302.3427265663494</v>
       </c>
       <c r="H13" t="n">
         <v>154.1005164469135</v>
@@ -5223,28 +5223,28 @@
         <v>1707.973078326791</v>
       </c>
       <c r="R13" t="n">
-        <v>1620.66814436399</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S13" t="n">
-        <v>1432.036176642509</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.036176642509</v>
+        <v>1475.731613644271</v>
       </c>
       <c r="U13" t="n">
-        <v>1146.641779613974</v>
+        <v>1475.731613644271</v>
       </c>
       <c r="V13" t="n">
-        <v>1050.256415013595</v>
+        <v>1209.752268465095</v>
       </c>
       <c r="W13" t="n">
-        <v>766.9260129447724</v>
+        <v>1209.752268465095</v>
       </c>
       <c r="X13" t="n">
-        <v>532.8456907277555</v>
+        <v>1209.752268465095</v>
       </c>
       <c r="Y13" t="n">
-        <v>309.7336295443988</v>
+        <v>986.6402072817386</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>824.0990155978124</v>
+        <v>1488.175951724192</v>
       </c>
       <c r="C14" t="n">
-        <v>430.9235141007429</v>
+        <v>1095.000450227123</v>
       </c>
       <c r="D14" t="n">
-        <v>45.48238531741068</v>
+        <v>709.5593214437906</v>
       </c>
       <c r="E14" t="n">
-        <v>45.48238531741068</v>
+        <v>709.5593214437906</v>
       </c>
       <c r="F14" t="n">
-        <v>45.48238531741068</v>
+        <v>709.5593214437906</v>
       </c>
       <c r="G14" t="n">
-        <v>45.48238531741068</v>
+        <v>298.2110238905581</v>
       </c>
       <c r="H14" t="n">
-        <v>45.48238531741068</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I14" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J14" t="n">
-        <v>79.91459989372277</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K14" t="n">
-        <v>642.7591181966799</v>
+        <v>425.6524132444051</v>
       </c>
       <c r="L14" t="n">
-        <v>771.6804365120671</v>
+        <v>554.5737315597922</v>
       </c>
       <c r="M14" t="n">
-        <v>1334.524954815024</v>
+        <v>1117.418249862749</v>
       </c>
       <c r="N14" t="n">
-        <v>1504.213128550255</v>
+        <v>1287.10642359798</v>
       </c>
       <c r="O14" t="n">
         <v>1662.286638940479</v>
       </c>
       <c r="P14" t="n">
-        <v>2225.131157243436</v>
+        <v>2225.131157243437</v>
       </c>
       <c r="Q14" t="n">
         <v>2274.119265870534</v>
@@ -5314,16 +5314,16 @@
         <v>2274.119265870534</v>
       </c>
       <c r="V14" t="n">
-        <v>1932.012456574053</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="W14" t="n">
-        <v>1932.012456574053</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="X14" t="n">
-        <v>1542.559851507109</v>
+        <v>1884.666660803591</v>
       </c>
       <c r="Y14" t="n">
-        <v>1146.06914242771</v>
+        <v>1488.175951724192</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>801.0762819550446</v>
+        <v>801.076281955045</v>
       </c>
       <c r="C15" t="n">
-        <v>650.4220515151368</v>
+        <v>650.4220515151372</v>
       </c>
       <c r="D15" t="n">
-        <v>520.3330841366171</v>
+        <v>520.3330841366176</v>
       </c>
       <c r="E15" t="n">
-        <v>383.8865932475048</v>
+        <v>383.8865932475053</v>
       </c>
       <c r="F15" t="n">
-        <v>259.4547871306366</v>
+        <v>259.4547871306371</v>
       </c>
       <c r="G15" t="n">
         <v>140.3657897980795</v>
       </c>
       <c r="H15" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I15" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J15" t="n">
         <v>248.4933708924599</v>
       </c>
       <c r="K15" t="n">
-        <v>721.8791051136801</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L15" t="n">
-        <v>851.3065986710285</v>
+        <v>872.6135337301182</v>
       </c>
       <c r="M15" t="n">
-        <v>1414.151116973986</v>
+        <v>1022.23900273032</v>
       </c>
       <c r="N15" t="n">
-        <v>1976.995635276943</v>
+        <v>1185.190231865715</v>
       </c>
       <c r="O15" t="n">
-        <v>2111.621307950024</v>
+        <v>1319.815904538797</v>
       </c>
       <c r="P15" t="n">
-        <v>2207.103786020999</v>
+        <v>1882.660422841754</v>
       </c>
       <c r="Q15" t="n">
         <v>2238.483816316392</v>
@@ -5387,7 +5387,7 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T15" t="n">
-        <v>1984.150432011466</v>
+        <v>1984.150432011467</v>
       </c>
       <c r="U15" t="n">
         <v>1774.151158466133</v>
@@ -5402,7 +5402,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y15" t="n">
-        <v>952.8726163960059</v>
+        <v>952.8726163960064</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1108.505855050869</v>
+        <v>516.7978590595308</v>
       </c>
       <c r="C16" t="n">
-        <v>938.300737116858</v>
+        <v>516.7978590595308</v>
       </c>
       <c r="D16" t="n">
-        <v>782.6676240193729</v>
+        <v>361.1647459620455</v>
       </c>
       <c r="E16" t="n">
-        <v>627.1088118785754</v>
+        <v>361.1647459620455</v>
       </c>
       <c r="F16" t="n">
-        <v>469.7828770915483</v>
+        <v>361.1647459620455</v>
       </c>
       <c r="G16" t="n">
-        <v>302.3427265663494</v>
+        <v>193.7245954368466</v>
       </c>
       <c r="H16" t="n">
-        <v>154.1005164469135</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I16" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J16" t="n">
         <v>72.10650628172073</v>
@@ -5466,22 +5466,22 @@
         <v>1707.973078326791</v>
       </c>
       <c r="T16" t="n">
-        <v>1475.731613644271</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.731613644271</v>
+        <v>1422.578681298256</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.731613644271</v>
+        <v>1156.59933611908</v>
       </c>
       <c r="W16" t="n">
-        <v>1475.731613644271</v>
+        <v>873.2689340502579</v>
       </c>
       <c r="X16" t="n">
-        <v>1475.731613644271</v>
+        <v>639.188611833241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1252.619552460915</v>
+        <v>639.188611833241</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1146.74214456125</v>
+        <v>890.5769633219334</v>
       </c>
       <c r="C17" t="n">
-        <v>753.5666430641808</v>
+        <v>530.7620502397079</v>
       </c>
       <c r="D17" t="n">
-        <v>753.5666430641808</v>
+        <v>530.7620502397079</v>
       </c>
       <c r="E17" t="n">
-        <v>350.9831181807253</v>
+        <v>530.7620502397079</v>
       </c>
       <c r="F17" t="n">
-        <v>350.9831181807253</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="G17" t="n">
-        <v>350.9831181807253</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="H17" t="n">
-        <v>45.48238531741068</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I17" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J17" t="n">
-        <v>341.0674123654735</v>
+        <v>79.91459989372275</v>
       </c>
       <c r="K17" t="n">
-        <v>425.6524132444051</v>
+        <v>614.1551946018684</v>
       </c>
       <c r="L17" t="n">
-        <v>988.4969315473622</v>
+        <v>1176.999712904826</v>
       </c>
       <c r="M17" t="n">
-        <v>1152.53187299055</v>
+        <v>1341.034654348013</v>
       </c>
       <c r="N17" t="n">
-        <v>1715.376391293507</v>
+        <v>1510.722828083244</v>
       </c>
       <c r="O17" t="n">
-        <v>2118.2006017878</v>
+        <v>1662.286638940479</v>
       </c>
       <c r="P17" t="n">
-        <v>2225.131157243436</v>
+        <v>2225.131157243437</v>
       </c>
       <c r="Q17" t="n">
         <v>2274.119265870534</v>
@@ -5545,22 +5545,22 @@
         <v>2274.119265870534</v>
       </c>
       <c r="T17" t="n">
-        <v>2274.119265870534</v>
+        <v>2058.561453144442</v>
       </c>
       <c r="U17" t="n">
-        <v>2274.119265870534</v>
+        <v>2058.561453144442</v>
       </c>
       <c r="V17" t="n">
-        <v>2274.119265870534</v>
+        <v>2058.561453144442</v>
       </c>
       <c r="W17" t="n">
-        <v>2274.119265870534</v>
+        <v>1687.562418112729</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.727599352046</v>
+        <v>1687.562418112729</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.236890272647</v>
+        <v>1291.07170903333</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>801.0762819550446</v>
+        <v>801.076281955045</v>
       </c>
       <c r="C18" t="n">
-        <v>650.4220515151367</v>
+        <v>650.4220515151371</v>
       </c>
       <c r="D18" t="n">
-        <v>520.3330841366171</v>
+        <v>520.3330841366173</v>
       </c>
       <c r="E18" t="n">
-        <v>383.8865932475048</v>
+        <v>383.8865932475051</v>
       </c>
       <c r="F18" t="n">
-        <v>259.4547871306365</v>
+        <v>259.4547871306368</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3657897980794</v>
+        <v>140.3657897980797</v>
       </c>
       <c r="H18" t="n">
-        <v>61.44445651913546</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I18" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J18" t="n">
-        <v>53.75837591273252</v>
+        <v>248.4933708924599</v>
       </c>
       <c r="K18" t="n">
-        <v>527.1441101339527</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L18" t="n">
-        <v>644.5811656920411</v>
+        <v>839.3161606717683</v>
       </c>
       <c r="M18" t="n">
-        <v>985.9322713441097</v>
+        <v>1057.874452284463</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.776789647067</v>
+        <v>1220.825681419858</v>
       </c>
       <c r="O18" t="n">
-        <v>2111.621307950024</v>
+        <v>1355.451354092939</v>
       </c>
       <c r="P18" t="n">
-        <v>2207.103786020999</v>
+        <v>1918.295872395896</v>
       </c>
       <c r="Q18" t="n">
-        <v>2238.483816316392</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="R18" t="n">
         <v>2274.119265870534</v>
@@ -5639,7 +5639,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y18" t="n">
-        <v>952.8726163960059</v>
+        <v>952.8726163960064</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829.6826059873551</v>
+        <v>795.5468071663568</v>
       </c>
       <c r="C19" t="n">
-        <v>829.6826059873551</v>
+        <v>625.341689232346</v>
       </c>
       <c r="D19" t="n">
-        <v>674.04949288987</v>
+        <v>625.341689232346</v>
       </c>
       <c r="E19" t="n">
-        <v>518.4906807490725</v>
+        <v>469.7828770915484</v>
       </c>
       <c r="F19" t="n">
-        <v>361.1647459620455</v>
+        <v>469.7828770915484</v>
       </c>
       <c r="G19" t="n">
-        <v>193.7245954368466</v>
+        <v>302.3427265663495</v>
       </c>
       <c r="H19" t="n">
-        <v>45.48238531741068</v>
+        <v>154.1005164469136</v>
       </c>
       <c r="I19" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J19" t="n">
         <v>72.10650628172073</v>
@@ -5697,28 +5697,28 @@
         <v>1707.973078326791</v>
       </c>
       <c r="R19" t="n">
-        <v>1620.66814436399</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S19" t="n">
-        <v>1432.036176642509</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.036176642509</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="U19" t="n">
-        <v>1146.641779613974</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="V19" t="n">
-        <v>1014.890624678656</v>
+        <v>1437.947209258032</v>
       </c>
       <c r="W19" t="n">
-        <v>1014.890624678656</v>
+        <v>1437.947209258032</v>
       </c>
       <c r="X19" t="n">
-        <v>1014.890624678656</v>
+        <v>1203.866887041015</v>
       </c>
       <c r="Y19" t="n">
-        <v>1014.890624678656</v>
+        <v>980.754825857658</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>988.0062857368728</v>
+        <v>1600.568499796858</v>
       </c>
       <c r="C20" t="n">
-        <v>988.0062857368728</v>
+        <v>1207.392998299788</v>
       </c>
       <c r="D20" t="n">
-        <v>988.0062857368728</v>
+        <v>821.9518695164559</v>
       </c>
       <c r="E20" t="n">
-        <v>585.4227608534172</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="F20" t="n">
-        <v>456.8306828706432</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="G20" t="n">
-        <v>45.48238531741068</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="H20" t="n">
-        <v>45.48238531741068</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I20" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J20" t="n">
-        <v>79.91459989372277</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K20" t="n">
-        <v>164.4996007726543</v>
+        <v>903.9119306684307</v>
       </c>
       <c r="L20" t="n">
-        <v>293.4209190880416</v>
+        <v>1032.833248983818</v>
       </c>
       <c r="M20" t="n">
-        <v>856.2654373909987</v>
+        <v>1196.868190427005</v>
       </c>
       <c r="N20" t="n">
-        <v>1227.456811909686</v>
+        <v>1366.556364162236</v>
       </c>
       <c r="O20" t="n">
-        <v>1790.301330212643</v>
+        <v>1518.120175019472</v>
       </c>
       <c r="P20" t="n">
-        <v>1897.231885668279</v>
+        <v>1822.759446798182</v>
       </c>
       <c r="Q20" t="n">
-        <v>2274.119265870534</v>
+        <v>2199.646827000437</v>
       </c>
       <c r="R20" t="n">
         <v>2274.119265870534</v>
       </c>
       <c r="S20" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="U20" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="V20" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="W20" t="n">
-        <v>1777.953636515213</v>
+        <v>1997.059208876256</v>
       </c>
       <c r="X20" t="n">
-        <v>1388.50103144827</v>
+        <v>1997.059208876256</v>
       </c>
       <c r="Y20" t="n">
-        <v>1388.50103144827</v>
+        <v>1600.568499796858</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>801.0762819550446</v>
+        <v>801.076281955045</v>
       </c>
       <c r="C21" t="n">
-        <v>650.4220515151368</v>
+        <v>650.4220515151371</v>
       </c>
       <c r="D21" t="n">
-        <v>520.3330841366171</v>
+        <v>520.3330841366176</v>
       </c>
       <c r="E21" t="n">
-        <v>383.8865932475048</v>
+        <v>383.8865932475053</v>
       </c>
       <c r="F21" t="n">
-        <v>259.4547871306366</v>
+        <v>259.454787130637</v>
       </c>
       <c r="G21" t="n">
-        <v>140.3657897980795</v>
+        <v>140.3657897980796</v>
       </c>
       <c r="H21" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913566</v>
       </c>
       <c r="I21" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J21" t="n">
-        <v>53.75837591273252</v>
+        <v>248.4933708924599</v>
       </c>
       <c r="K21" t="n">
-        <v>118.7039980917263</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L21" t="n">
-        <v>681.5485163946834</v>
+        <v>839.3161606717683</v>
       </c>
       <c r="M21" t="n">
-        <v>985.9322713441097</v>
+        <v>988.9416296719705</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.776789647067</v>
+        <v>1151.892858807365</v>
       </c>
       <c r="O21" t="n">
-        <v>2111.621307950024</v>
+        <v>1355.451354092939</v>
       </c>
       <c r="P21" t="n">
-        <v>2207.103786020999</v>
+        <v>1918.295872395896</v>
       </c>
       <c r="Q21" t="n">
-        <v>2238.483816316392</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="R21" t="n">
         <v>2274.119265870534</v>
@@ -5861,13 +5861,13 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T21" t="n">
-        <v>1984.150432011466</v>
+        <v>1984.150432011467</v>
       </c>
       <c r="U21" t="n">
-        <v>1774.151158466133</v>
+        <v>1774.151158466134</v>
       </c>
       <c r="V21" t="n">
-        <v>1551.6111568372</v>
+        <v>1551.611156837201</v>
       </c>
       <c r="W21" t="n">
         <v>1321.493910970487</v>
@@ -5876,7 +5876,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y21" t="n">
-        <v>952.8726163960059</v>
+        <v>952.8726163960064</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>851.6455138019303</v>
+        <v>842.5617891343391</v>
       </c>
       <c r="C22" t="n">
-        <v>681.4403958679195</v>
+        <v>672.3566712003283</v>
       </c>
       <c r="D22" t="n">
-        <v>525.8072827704342</v>
+        <v>516.7235581028431</v>
       </c>
       <c r="E22" t="n">
-        <v>370.2484706296367</v>
+        <v>361.1647459620455</v>
       </c>
       <c r="F22" t="n">
-        <v>212.9225358426096</v>
+        <v>361.1647459620455</v>
       </c>
       <c r="G22" t="n">
-        <v>45.48238531741068</v>
+        <v>193.7245954368466</v>
       </c>
       <c r="H22" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I22" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J22" t="n">
         <v>72.10650628172073</v>
@@ -5946,16 +5946,16 @@
         <v>1475.731613644271</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.752268465096</v>
+        <v>1475.731613644271</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.853532493232</v>
+        <v>1475.731613644271</v>
       </c>
       <c r="X22" t="n">
-        <v>1036.853532493232</v>
+        <v>1250.881869008997</v>
       </c>
       <c r="Y22" t="n">
-        <v>1036.853532493232</v>
+        <v>1027.76980782564</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>864.9603486708884</v>
+        <v>804.8094734163326</v>
       </c>
       <c r="C23" t="n">
-        <v>864.9603486708884</v>
+        <v>804.8094734163326</v>
       </c>
       <c r="D23" t="n">
-        <v>864.9603486708884</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="E23" t="n">
-        <v>462.3768237874329</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="F23" t="n">
-        <v>45.48238531741068</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="G23" t="n">
-        <v>45.48238531741068</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="H23" t="n">
-        <v>45.48238531741068</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I23" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J23" t="n">
-        <v>79.91459989372277</v>
+        <v>79.91459989372275</v>
       </c>
       <c r="K23" t="n">
         <v>164.4996007726543</v>
       </c>
       <c r="L23" t="n">
-        <v>293.4209190880416</v>
+        <v>727.3441190756115</v>
       </c>
       <c r="M23" t="n">
-        <v>856.2654373909987</v>
+        <v>1290.188637378569</v>
       </c>
       <c r="N23" t="n">
-        <v>1099.442120637522</v>
+        <v>1853.033155681526</v>
       </c>
       <c r="O23" t="n">
-        <v>1662.286638940479</v>
+        <v>2004.596966538762</v>
       </c>
       <c r="P23" t="n">
-        <v>2225.131157243436</v>
+        <v>2111.527521994398</v>
       </c>
       <c r="Q23" t="n">
         <v>2274.119265870534</v>
@@ -6016,25 +6016,25 @@
         <v>2274.119265870534</v>
       </c>
       <c r="S23" t="n">
-        <v>2274.119265870534</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="T23" t="n">
-        <v>2274.119265870534</v>
+        <v>1933.394858820833</v>
       </c>
       <c r="U23" t="n">
-        <v>2274.119265870534</v>
+        <v>1677.787285892133</v>
       </c>
       <c r="V23" t="n">
-        <v>2051.398408528627</v>
+        <v>1335.680476595652</v>
       </c>
       <c r="W23" t="n">
-        <v>2051.398408528627</v>
+        <v>964.6814415639392</v>
       </c>
       <c r="X23" t="n">
-        <v>1661.945803461684</v>
+        <v>804.8094734163326</v>
       </c>
       <c r="Y23" t="n">
-        <v>1265.455094382285</v>
+        <v>804.8094734163326</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>140.3657897980795</v>
       </c>
       <c r="H24" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I24" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J24" t="n">
-        <v>53.75837591273252</v>
+        <v>160.8266443851862</v>
       </c>
       <c r="K24" t="n">
-        <v>118.7039980917263</v>
+        <v>634.2123786064063</v>
       </c>
       <c r="L24" t="n">
-        <v>681.5485163946834</v>
+        <v>1197.056896909364</v>
       </c>
       <c r="M24" t="n">
-        <v>831.1739853948856</v>
+        <v>1346.682365909566</v>
       </c>
       <c r="N24" t="n">
-        <v>1185.190231865715</v>
+        <v>1509.633595044961</v>
       </c>
       <c r="O24" t="n">
-        <v>1319.815904538796</v>
+        <v>1644.259267718042</v>
       </c>
       <c r="P24" t="n">
-        <v>1882.660422841753</v>
+        <v>2207.103786020999</v>
       </c>
       <c r="Q24" t="n">
         <v>2238.483816316392</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>349.2834075776441</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="C25" t="n">
-        <v>349.2834075776441</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="D25" t="n">
-        <v>349.2834075776441</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="E25" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="F25" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="G25" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="H25" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I25" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J25" t="n">
         <v>72.10650628172073</v>
@@ -6174,25 +6174,25 @@
         <v>1707.973078326791</v>
       </c>
       <c r="S25" t="n">
-        <v>1707.973078326791</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T25" t="n">
-        <v>1707.973078326791</v>
+        <v>1287.099645922789</v>
       </c>
       <c r="U25" t="n">
-        <v>1422.578681298257</v>
+        <v>1001.705248894255</v>
       </c>
       <c r="V25" t="n">
-        <v>1156.599336119081</v>
+        <v>735.725903715079</v>
       </c>
       <c r="W25" t="n">
-        <v>873.2689340502584</v>
+        <v>452.3955016462566</v>
       </c>
       <c r="X25" t="n">
-        <v>639.1886118332415</v>
+        <v>218.3151794292397</v>
       </c>
       <c r="Y25" t="n">
-        <v>534.4914262689454</v>
+        <v>45.48238531741069</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1190.793303812954</v>
+        <v>1506.629521759423</v>
       </c>
       <c r="C26" t="n">
-        <v>797.6178023158848</v>
+        <v>1113.454020262354</v>
       </c>
       <c r="D26" t="n">
-        <v>412.1766735325525</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="E26" t="n">
-        <v>412.1766735325525</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="F26" t="n">
-        <v>412.1766735325525</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="G26" t="n">
-        <v>412.1766735325525</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="H26" t="n">
-        <v>106.6759406692379</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I26" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J26" t="n">
-        <v>79.91459989372277</v>
+        <v>79.91459989372275</v>
       </c>
       <c r="K26" t="n">
         <v>164.4996007726543</v>
       </c>
       <c r="L26" t="n">
-        <v>727.3441190756114</v>
+        <v>727.3441190756115</v>
       </c>
       <c r="M26" t="n">
         <v>1290.188637378569</v>
@@ -6244,7 +6244,7 @@
         <v>2118.2006017878</v>
       </c>
       <c r="P26" t="n">
-        <v>2225.131157243436</v>
+        <v>2225.131157243437</v>
       </c>
       <c r="Q26" t="n">
         <v>2274.119265870534</v>
@@ -6253,25 +6253,25 @@
         <v>2274.119265870534</v>
       </c>
       <c r="S26" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="T26" t="n">
-        <v>1933.394858820833</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="U26" t="n">
-        <v>1933.394858820833</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="V26" t="n">
-        <v>1591.288049524351</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="W26" t="n">
-        <v>1591.288049524351</v>
+        <v>1903.120230838822</v>
       </c>
       <c r="X26" t="n">
-        <v>1591.288049524351</v>
+        <v>1903.120230838822</v>
       </c>
       <c r="Y26" t="n">
-        <v>1591.288049524351</v>
+        <v>1506.629521759423</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>801.0762819550446</v>
+        <v>801.076281955045</v>
       </c>
       <c r="C27" t="n">
-        <v>650.4220515151368</v>
+        <v>650.4220515151371</v>
       </c>
       <c r="D27" t="n">
-        <v>520.3330841366171</v>
+        <v>520.3330841366176</v>
       </c>
       <c r="E27" t="n">
-        <v>383.8865932475048</v>
+        <v>383.8865932475053</v>
       </c>
       <c r="F27" t="n">
-        <v>259.4547871306366</v>
+        <v>259.454787130637</v>
       </c>
       <c r="G27" t="n">
         <v>140.3657897980795</v>
       </c>
       <c r="H27" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I27" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J27" t="n">
-        <v>53.75837591273252</v>
+        <v>248.4933708924599</v>
       </c>
       <c r="K27" t="n">
-        <v>118.7039980917263</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.7232025952949</v>
+        <v>839.3161606717683</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.567720898252</v>
+        <v>1057.874452284463</v>
       </c>
       <c r="N27" t="n">
-        <v>1584.412239201209</v>
+        <v>1220.825681419858</v>
       </c>
       <c r="O27" t="n">
-        <v>2147.256757504166</v>
+        <v>1355.451354092939</v>
       </c>
       <c r="P27" t="n">
-        <v>2242.739235575141</v>
+        <v>1918.295872395896</v>
       </c>
       <c r="Q27" t="n">
         <v>2274.119265870534</v>
@@ -6335,13 +6335,13 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T27" t="n">
-        <v>1984.150432011466</v>
+        <v>1984.150432011467</v>
       </c>
       <c r="U27" t="n">
-        <v>1774.151158466133</v>
+        <v>1774.151158466134</v>
       </c>
       <c r="V27" t="n">
-        <v>1551.6111568372</v>
+        <v>1551.611156837201</v>
       </c>
       <c r="W27" t="n">
         <v>1321.493910970487</v>
@@ -6350,7 +6350,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.8726163960059</v>
+        <v>952.8726163960064</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.3053724820112</v>
+        <v>373.0134380384485</v>
       </c>
       <c r="C28" t="n">
-        <v>336.1002545480004</v>
+        <v>202.8083201044377</v>
       </c>
       <c r="D28" t="n">
-        <v>336.1002545480004</v>
+        <v>202.8083201044377</v>
       </c>
       <c r="E28" t="n">
-        <v>336.1002545480004</v>
+        <v>202.8083201044377</v>
       </c>
       <c r="F28" t="n">
-        <v>336.1002545480004</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="G28" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="H28" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I28" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J28" t="n">
         <v>72.10650628172073</v>
@@ -6408,28 +6408,28 @@
         <v>1707.973078326791</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.66814436399</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S28" t="n">
-        <v>1432.036176642509</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.036176642509</v>
+        <v>1566.787582337833</v>
       </c>
       <c r="U28" t="n">
-        <v>1432.036176642509</v>
+        <v>1281.393185309299</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.036176642509</v>
+        <v>1015.413840130123</v>
       </c>
       <c r="W28" t="n">
-        <v>1148.705774573686</v>
+        <v>1015.413840130123</v>
       </c>
       <c r="X28" t="n">
-        <v>914.6254523566691</v>
+        <v>781.3335179131064</v>
       </c>
       <c r="Y28" t="n">
-        <v>691.5133911733125</v>
+        <v>558.2214567297498</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1235.447313151045</v>
+        <v>964.6814415639392</v>
       </c>
       <c r="C29" t="n">
-        <v>842.2718116539754</v>
+        <v>804.8094734163326</v>
       </c>
       <c r="D29" t="n">
-        <v>456.8306828706432</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="E29" t="n">
-        <v>456.8306828706432</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="F29" t="n">
-        <v>456.8306828706432</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="G29" t="n">
-        <v>45.48238531741068</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="H29" t="n">
-        <v>45.48238531741068</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I29" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J29" t="n">
-        <v>341.0674123654735</v>
+        <v>79.91459989372275</v>
       </c>
       <c r="K29" t="n">
-        <v>425.6524132444051</v>
+        <v>642.75911819668</v>
       </c>
       <c r="L29" t="n">
-        <v>988.4969315473622</v>
+        <v>771.6804365120672</v>
       </c>
       <c r="M29" t="n">
-        <v>1403.792272627607</v>
+        <v>935.7153779552544</v>
       </c>
       <c r="N29" t="n">
-        <v>1966.636790930564</v>
+        <v>1105.403551690485</v>
       </c>
       <c r="O29" t="n">
-        <v>2118.2006017878</v>
+        <v>1662.286638940479</v>
       </c>
       <c r="P29" t="n">
-        <v>2225.131157243436</v>
+        <v>2225.131157243437</v>
       </c>
       <c r="Q29" t="n">
         <v>2274.119265870534</v>
@@ -6490,25 +6490,25 @@
         <v>2274.119265870534</v>
       </c>
       <c r="S29" t="n">
-        <v>2274.119265870534</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="T29" t="n">
-        <v>2274.119265870534</v>
+        <v>1933.394858820833</v>
       </c>
       <c r="U29" t="n">
-        <v>2274.119265870534</v>
+        <v>1677.787285892133</v>
       </c>
       <c r="V29" t="n">
-        <v>2025.394663929385</v>
+        <v>1335.680476595652</v>
       </c>
       <c r="W29" t="n">
-        <v>2025.394663929385</v>
+        <v>964.6814415639392</v>
       </c>
       <c r="X29" t="n">
-        <v>1635.942058862442</v>
+        <v>964.6814415639392</v>
       </c>
       <c r="Y29" t="n">
-        <v>1635.942058862442</v>
+        <v>964.6814415639392</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>801.0762819550446</v>
+        <v>801.076281955045</v>
       </c>
       <c r="C30" t="n">
-        <v>650.4220515151368</v>
+        <v>650.4220515151371</v>
       </c>
       <c r="D30" t="n">
-        <v>520.3330841366171</v>
+        <v>520.3330841366176</v>
       </c>
       <c r="E30" t="n">
-        <v>383.8865932475048</v>
+        <v>383.8865932475053</v>
       </c>
       <c r="F30" t="n">
-        <v>259.4547871306366</v>
+        <v>259.454787130637</v>
       </c>
       <c r="G30" t="n">
         <v>140.3657897980795</v>
       </c>
       <c r="H30" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I30" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J30" t="n">
-        <v>53.75837591273252</v>
+        <v>248.4933708924599</v>
       </c>
       <c r="K30" t="n">
-        <v>118.7039980917263</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L30" t="n">
-        <v>236.1410536498146</v>
+        <v>839.3161606717683</v>
       </c>
       <c r="M30" t="n">
-        <v>629.6556066545866</v>
+        <v>1057.874452284463</v>
       </c>
       <c r="N30" t="n">
-        <v>792.6068357899815</v>
+        <v>1220.825681419858</v>
       </c>
       <c r="O30" t="n">
         <v>1355.451354092939</v>
@@ -6572,13 +6572,13 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T30" t="n">
-        <v>1984.150432011466</v>
+        <v>1984.150432011467</v>
       </c>
       <c r="U30" t="n">
-        <v>1774.151158466133</v>
+        <v>1774.151158466134</v>
       </c>
       <c r="V30" t="n">
-        <v>1551.6111568372</v>
+        <v>1551.611156837201</v>
       </c>
       <c r="W30" t="n">
         <v>1321.493910970487</v>
@@ -6587,7 +6587,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y30" t="n">
-        <v>952.8726163960059</v>
+        <v>952.8726163960064</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.7419249760605</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="C31" t="n">
-        <v>782.7419249760605</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="D31" t="n">
-        <v>627.1088118785754</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="E31" t="n">
-        <v>627.1088118785754</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="F31" t="n">
-        <v>469.7828770915483</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="G31" t="n">
-        <v>302.3427265663494</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="H31" t="n">
-        <v>154.1005164469135</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I31" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J31" t="n">
         <v>72.10650628172073</v>
@@ -6654,19 +6654,19 @@
         <v>1287.099645922789</v>
       </c>
       <c r="U31" t="n">
-        <v>1287.099645922789</v>
+        <v>1001.705248894255</v>
       </c>
       <c r="V31" t="n">
-        <v>1287.099645922789</v>
+        <v>735.725903715079</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.030265884379</v>
+        <v>452.3955016462566</v>
       </c>
       <c r="X31" t="n">
-        <v>967.9499436673618</v>
+        <v>218.3151794292397</v>
       </c>
       <c r="Y31" t="n">
-        <v>967.9499436673618</v>
+        <v>45.48238531741069</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.879413383424</v>
+        <v>1197.984974913402</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.703911886355</v>
+        <v>804.8094734163326</v>
       </c>
       <c r="D32" t="n">
-        <v>836.2627831030226</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="E32" t="n">
-        <v>836.2627831030226</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="F32" t="n">
         <v>419.3683446330003</v>
@@ -6700,25 +6700,25 @@
         <v>45.48238531741068</v>
       </c>
       <c r="J32" t="n">
-        <v>79.91459989372277</v>
+        <v>79.91459989372274</v>
       </c>
       <c r="K32" t="n">
-        <v>642.7591181966799</v>
+        <v>164.4996007726543</v>
       </c>
       <c r="L32" t="n">
-        <v>1205.603636499637</v>
+        <v>727.3441190756114</v>
       </c>
       <c r="M32" t="n">
-        <v>1369.638577942824</v>
+        <v>891.3790605187986</v>
       </c>
       <c r="N32" t="n">
-        <v>1539.326751678055</v>
+        <v>1061.067234254029</v>
       </c>
       <c r="O32" t="n">
-        <v>1690.890562535291</v>
+        <v>1623.911752556987</v>
       </c>
       <c r="P32" t="n">
-        <v>2225.131157243436</v>
+        <v>2186.756270859943</v>
       </c>
       <c r="Q32" t="n">
         <v>2274.119265870534</v>
@@ -6727,25 +6727,25 @@
         <v>2274.119265870534</v>
       </c>
       <c r="S32" t="n">
-        <v>2274.119265870534</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="T32" t="n">
-        <v>2058.561453144441</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="U32" t="n">
-        <v>2058.561453144441</v>
+        <v>1893.345098618225</v>
       </c>
       <c r="V32" t="n">
-        <v>2058.561453144441</v>
+        <v>1551.238289321744</v>
       </c>
       <c r="W32" t="n">
-        <v>2058.561453144441</v>
+        <v>1197.984974913402</v>
       </c>
       <c r="X32" t="n">
-        <v>1669.108848077498</v>
+        <v>1197.984974913402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1614.879413383424</v>
+        <v>1197.984974913402</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>801.0762819550446</v>
       </c>
       <c r="C33" t="n">
-        <v>650.4220515151368</v>
+        <v>650.4220515151367</v>
       </c>
       <c r="D33" t="n">
         <v>520.3330841366171</v>
@@ -6767,37 +6767,37 @@
         <v>383.8865932475048</v>
       </c>
       <c r="F33" t="n">
-        <v>259.4547871306366</v>
+        <v>259.4547871306365</v>
       </c>
       <c r="G33" t="n">
         <v>140.3657897980795</v>
       </c>
       <c r="H33" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913553</v>
       </c>
       <c r="I33" t="n">
         <v>45.48238531741068</v>
       </c>
       <c r="J33" t="n">
-        <v>53.75837591273252</v>
+        <v>248.4933708924599</v>
       </c>
       <c r="K33" t="n">
-        <v>118.7039980917263</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L33" t="n">
-        <v>681.5485163946834</v>
+        <v>839.3161606717683</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.567720898252</v>
+        <v>988.9416296719705</v>
       </c>
       <c r="N33" t="n">
-        <v>1584.412239201209</v>
+        <v>1151.892858807365</v>
       </c>
       <c r="O33" t="n">
-        <v>2147.256757504166</v>
+        <v>1355.451354092939</v>
       </c>
       <c r="P33" t="n">
-        <v>2242.739235575141</v>
+        <v>1918.295872395896</v>
       </c>
       <c r="Q33" t="n">
         <v>2274.119265870534</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>792.8234944062342</v>
+        <v>631.0699128626318</v>
       </c>
       <c r="C34" t="n">
-        <v>622.6183764722234</v>
+        <v>631.0699128626318</v>
       </c>
       <c r="D34" t="n">
-        <v>466.9852633747381</v>
+        <v>627.1088118785754</v>
       </c>
       <c r="E34" t="n">
-        <v>311.4264512339406</v>
+        <v>627.1088118785754</v>
       </c>
       <c r="F34" t="n">
-        <v>154.1005164469135</v>
+        <v>469.7828770915484</v>
       </c>
       <c r="G34" t="n">
-        <v>154.1005164469135</v>
+        <v>302.3427265663494</v>
       </c>
       <c r="H34" t="n">
         <v>154.1005164469135</v>
@@ -6885,25 +6885,25 @@
         <v>1620.66814436399</v>
       </c>
       <c r="S34" t="n">
-        <v>1444.353299997072</v>
+        <v>1432.036176642508</v>
       </c>
       <c r="T34" t="n">
-        <v>1212.111835314552</v>
+        <v>1199.794711959988</v>
       </c>
       <c r="U34" t="n">
-        <v>1212.111835314552</v>
+        <v>914.4003149314542</v>
       </c>
       <c r="V34" t="n">
-        <v>1212.111835314552</v>
+        <v>914.4003149314542</v>
       </c>
       <c r="W34" t="n">
-        <v>1212.111835314552</v>
+        <v>631.0699128626318</v>
       </c>
       <c r="X34" t="n">
-        <v>978.0315130975355</v>
+        <v>631.0699128626318</v>
       </c>
       <c r="Y34" t="n">
-        <v>978.0315130975355</v>
+        <v>631.0699128626318</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1344.693872676396</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.693872676396</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="D35" t="n">
-        <v>1344.693872676396</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="E35" t="n">
-        <v>942.1103477929405</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="F35" t="n">
-        <v>525.2159093229183</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="G35" t="n">
-        <v>113.8676117696857</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="H35" t="n">
         <v>113.8676117696857</v>
@@ -6937,28 +6937,28 @@
         <v>45.48238531741069</v>
       </c>
       <c r="J35" t="n">
-        <v>79.91459989372278</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K35" t="n">
-        <v>164.4996007726544</v>
+        <v>645.7066841441837</v>
       </c>
       <c r="L35" t="n">
-        <v>727.3441190756116</v>
+        <v>774.6280024595709</v>
       </c>
       <c r="M35" t="n">
-        <v>1290.188637378569</v>
+        <v>938.6629439027581</v>
       </c>
       <c r="N35" t="n">
-        <v>1853.033155681526</v>
+        <v>1108.351117637989</v>
       </c>
       <c r="O35" t="n">
-        <v>2118.2006017878</v>
+        <v>1259.914928495225</v>
       </c>
       <c r="P35" t="n">
-        <v>2225.131157243437</v>
+        <v>1822.759446798182</v>
       </c>
       <c r="Q35" t="n">
-        <v>2274.119265870534</v>
+        <v>2199.646827000437</v>
       </c>
       <c r="R35" t="n">
         <v>2274.119265870534</v>
@@ -6967,22 +6967,22 @@
         <v>2274.119265870534</v>
       </c>
       <c r="T35" t="n">
-        <v>2274.119265870534</v>
+        <v>2216.32449791315</v>
       </c>
       <c r="U35" t="n">
-        <v>2018.511692941834</v>
+        <v>1960.716924984449</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.692907708109</v>
+        <v>1618.610115687968</v>
       </c>
       <c r="W35" t="n">
-        <v>1344.693872676396</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="X35" t="n">
-        <v>1344.693872676396</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="Y35" t="n">
-        <v>1344.693872676396</v>
+        <v>1247.611080656255</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>801.076281955045</v>
+        <v>801.0762819550445</v>
       </c>
       <c r="C36" t="n">
-        <v>650.4220515151371</v>
+        <v>650.4220515151367</v>
       </c>
       <c r="D36" t="n">
-        <v>520.3330841366173</v>
+        <v>520.333084136617</v>
       </c>
       <c r="E36" t="n">
-        <v>383.8865932475051</v>
+        <v>383.8865932475047</v>
       </c>
       <c r="F36" t="n">
-        <v>259.4547871306368</v>
+        <v>259.4547871306365</v>
       </c>
       <c r="G36" t="n">
-        <v>140.3657897980797</v>
+        <v>140.3657897980795</v>
       </c>
       <c r="H36" t="n">
-        <v>61.44445651913564</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I36" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J36" t="n">
-        <v>53.75837591273253</v>
+        <v>53.75837591273251</v>
       </c>
       <c r="K36" t="n">
-        <v>118.7039980917263</v>
+        <v>118.7039980917262</v>
       </c>
       <c r="L36" t="n">
         <v>681.5485163946835</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.567720898252</v>
+        <v>1244.393034697641</v>
       </c>
       <c r="N36" t="n">
-        <v>1584.41223920121</v>
+        <v>1807.237553000598</v>
       </c>
       <c r="O36" t="n">
         <v>2147.256757504167</v>
@@ -7046,7 +7046,7 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T36" t="n">
-        <v>1984.150432011467</v>
+        <v>1984.150432011466</v>
       </c>
       <c r="U36" t="n">
         <v>1774.151158466133</v>
@@ -7061,7 +7061,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y36" t="n">
-        <v>952.8726163960064</v>
+        <v>952.8726163960059</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>455.8194506764378</v>
+        <v>684.2053632767313</v>
       </c>
       <c r="C37" t="n">
-        <v>455.8194506764378</v>
+        <v>514.0002453427205</v>
       </c>
       <c r="D37" t="n">
-        <v>455.8194506764378</v>
+        <v>358.3671322452352</v>
       </c>
       <c r="E37" t="n">
-        <v>361.1647459620455</v>
+        <v>202.8083201044377</v>
       </c>
       <c r="F37" t="n">
-        <v>361.1647459620455</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="G37" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="H37" t="n">
         <v>45.48238531741069</v>
@@ -7122,25 +7122,25 @@
         <v>1707.973078326791</v>
       </c>
       <c r="S37" t="n">
-        <v>1707.973078326791</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T37" t="n">
-        <v>1475.731613644271</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="U37" t="n">
-        <v>1190.337216615737</v>
+        <v>1233.946713576774</v>
       </c>
       <c r="V37" t="n">
-        <v>924.3578714365614</v>
+        <v>1233.946713576774</v>
       </c>
       <c r="W37" t="n">
-        <v>641.0274693677391</v>
+        <v>950.6163115079519</v>
       </c>
       <c r="X37" t="n">
-        <v>641.0274693677391</v>
+        <v>716.5359892909349</v>
       </c>
       <c r="Y37" t="n">
-        <v>641.0274693677391</v>
+        <v>716.5359892909349</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>824.0990155978125</v>
+        <v>923.9375517367773</v>
       </c>
       <c r="C38" t="n">
-        <v>430.923514100743</v>
+        <v>530.7620502397079</v>
       </c>
       <c r="D38" t="n">
-        <v>45.48238531741069</v>
+        <v>530.7620502397079</v>
       </c>
       <c r="E38" t="n">
-        <v>45.48238531741069</v>
+        <v>530.7620502397079</v>
       </c>
       <c r="F38" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="G38" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="H38" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I38" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J38" t="n">
-        <v>79.91459989372278</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K38" t="n">
-        <v>642.75911819668</v>
+        <v>903.9119306684307</v>
       </c>
       <c r="L38" t="n">
-        <v>1205.603636499637</v>
+        <v>1032.833248983818</v>
       </c>
       <c r="M38" t="n">
-        <v>1768.448154802594</v>
+        <v>1196.868190427005</v>
       </c>
       <c r="N38" t="n">
-        <v>1966.636790930565</v>
+        <v>1366.556364162236</v>
       </c>
       <c r="O38" t="n">
-        <v>2118.2006017878</v>
+        <v>1518.120175019472</v>
       </c>
       <c r="P38" t="n">
-        <v>2225.131157243437</v>
+        <v>1897.23188566828</v>
       </c>
       <c r="Q38" t="n">
         <v>2274.119265870534</v>
@@ -7204,22 +7204,22 @@
         <v>2274.119265870534</v>
       </c>
       <c r="T38" t="n">
-        <v>2058.561453144442</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="U38" t="n">
-        <v>1802.953880215741</v>
+        <v>2110.375611594516</v>
       </c>
       <c r="V38" t="n">
-        <v>1460.84707091926</v>
+        <v>2110.375611594516</v>
       </c>
       <c r="W38" t="n">
-        <v>1224.593761309209</v>
+        <v>2110.375611594516</v>
       </c>
       <c r="X38" t="n">
-        <v>1224.593761309209</v>
+        <v>1720.923006527573</v>
       </c>
       <c r="Y38" t="n">
-        <v>1224.593761309209</v>
+        <v>1324.432297448174</v>
       </c>
     </row>
     <row r="39">
@@ -7235,43 +7235,43 @@
         <v>650.4220515151371</v>
       </c>
       <c r="D39" t="n">
-        <v>520.3330841366173</v>
+        <v>520.3330841366176</v>
       </c>
       <c r="E39" t="n">
-        <v>383.8865932475051</v>
+        <v>383.8865932475053</v>
       </c>
       <c r="F39" t="n">
-        <v>259.4547871306368</v>
+        <v>259.454787130637</v>
       </c>
       <c r="G39" t="n">
-        <v>140.3657897980797</v>
+        <v>140.3657897980795</v>
       </c>
       <c r="H39" t="n">
-        <v>61.44445651913566</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I39" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J39" t="n">
-        <v>53.75837591273253</v>
+        <v>248.4933708924599</v>
       </c>
       <c r="K39" t="n">
-        <v>118.7039980917263</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L39" t="n">
-        <v>681.5485163946835</v>
+        <v>839.3161606717683</v>
       </c>
       <c r="M39" t="n">
-        <v>985.9322713441101</v>
+        <v>1022.23900273032</v>
       </c>
       <c r="N39" t="n">
-        <v>1548.776789647067</v>
+        <v>1185.190231865715</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.621307950024</v>
+        <v>1319.815904538797</v>
       </c>
       <c r="P39" t="n">
-        <v>2207.103786020999</v>
+        <v>1882.660422841754</v>
       </c>
       <c r="Q39" t="n">
         <v>2238.483816316392</v>
@@ -7286,10 +7286,10 @@
         <v>1984.150432011467</v>
       </c>
       <c r="U39" t="n">
-        <v>1774.151158466133</v>
+        <v>1774.151158466134</v>
       </c>
       <c r="V39" t="n">
-        <v>1551.6111568372</v>
+        <v>1551.611156837201</v>
       </c>
       <c r="W39" t="n">
         <v>1321.493910970487</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.9470429100713</v>
+        <v>525.8072827704342</v>
       </c>
       <c r="C40" t="n">
-        <v>782.7419249760605</v>
+        <v>525.8072827704342</v>
       </c>
       <c r="D40" t="n">
-        <v>627.1088118785754</v>
+        <v>525.8072827704342</v>
       </c>
       <c r="E40" t="n">
-        <v>627.1088118785754</v>
+        <v>370.2484706296367</v>
       </c>
       <c r="F40" t="n">
-        <v>469.7828770915484</v>
+        <v>212.9225358426096</v>
       </c>
       <c r="G40" t="n">
-        <v>302.3427265663494</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="H40" t="n">
-        <v>154.1005164469136</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I40" t="n">
         <v>45.48238531741069</v>
@@ -7365,19 +7365,19 @@
         <v>1519.341110605309</v>
       </c>
       <c r="U40" t="n">
-        <v>1519.341110605309</v>
+        <v>1483.43710989309</v>
       </c>
       <c r="V40" t="n">
-        <v>1519.341110605309</v>
+        <v>1217.457764713914</v>
       </c>
       <c r="W40" t="n">
-        <v>1236.010708536487</v>
+        <v>934.1273626450921</v>
       </c>
       <c r="X40" t="n">
-        <v>1138.155061601373</v>
+        <v>934.1273626450921</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.155061601373</v>
+        <v>711.0153014617355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1643.57697895129</v>
+        <v>927.7994342063737</v>
       </c>
       <c r="C41" t="n">
-        <v>1250.401477454221</v>
+        <v>927.7994342063737</v>
       </c>
       <c r="D41" t="n">
-        <v>864.9603486708884</v>
+        <v>927.7994342063737</v>
       </c>
       <c r="E41" t="n">
-        <v>462.376823787433</v>
+        <v>525.2159093229183</v>
       </c>
       <c r="F41" t="n">
-        <v>45.48238531741069</v>
+        <v>525.2159093229183</v>
       </c>
       <c r="G41" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="H41" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I41" t="n">
         <v>45.48238531741069</v>
@@ -7414,49 +7414,49 @@
         <v>341.0674123654735</v>
       </c>
       <c r="K41" t="n">
-        <v>903.9119306684307</v>
+        <v>645.7066841441837</v>
       </c>
       <c r="L41" t="n">
-        <v>1466.756448971388</v>
+        <v>774.6280024595709</v>
       </c>
       <c r="M41" t="n">
-        <v>1796.948617195334</v>
+        <v>938.6629439027581</v>
       </c>
       <c r="N41" t="n">
-        <v>1966.636790930565</v>
+        <v>1108.351117637989</v>
       </c>
       <c r="O41" t="n">
-        <v>2118.2006017878</v>
+        <v>1259.914928495225</v>
       </c>
       <c r="P41" t="n">
-        <v>2225.131157243437</v>
+        <v>1822.759446798182</v>
       </c>
       <c r="Q41" t="n">
-        <v>2274.119265870534</v>
+        <v>2199.646827000437</v>
       </c>
       <c r="R41" t="n">
         <v>2274.119265870534</v>
       </c>
       <c r="S41" t="n">
-        <v>2274.119265870534</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="T41" t="n">
-        <v>2274.119265870534</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="U41" t="n">
-        <v>2274.119265870534</v>
+        <v>1893.345098618226</v>
       </c>
       <c r="V41" t="n">
-        <v>2274.119265870534</v>
+        <v>1551.238289321744</v>
       </c>
       <c r="W41" t="n">
-        <v>2040.067688030689</v>
+        <v>1180.239254290032</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.067688030689</v>
+        <v>927.7994342063737</v>
       </c>
       <c r="Y41" t="n">
-        <v>1643.57697895129</v>
+        <v>927.7994342063737</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>801.076281955045</v>
       </c>
       <c r="C42" t="n">
-        <v>650.4220515151372</v>
+        <v>650.4220515151371</v>
       </c>
       <c r="D42" t="n">
-        <v>520.3330841366176</v>
+        <v>520.3330841366173</v>
       </c>
       <c r="E42" t="n">
-        <v>383.8865932475053</v>
+        <v>383.8865932475051</v>
       </c>
       <c r="F42" t="n">
-        <v>259.4547871306371</v>
+        <v>259.4547871306368</v>
       </c>
       <c r="G42" t="n">
-        <v>140.3657897980795</v>
+        <v>140.3657897980797</v>
       </c>
       <c r="H42" t="n">
-        <v>61.44445651913553</v>
+        <v>61.44445651913554</v>
       </c>
       <c r="I42" t="n">
         <v>45.48238531741069</v>
@@ -7493,22 +7493,22 @@
         <v>248.4933708924599</v>
       </c>
       <c r="K42" t="n">
-        <v>313.4389930714536</v>
+        <v>721.87910511368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.7232025952951</v>
+        <v>908.2489832842605</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.567720898252</v>
+        <v>1057.874452284463</v>
       </c>
       <c r="N42" t="n">
-        <v>1584.41223920121</v>
+        <v>1220.825681419858</v>
       </c>
       <c r="O42" t="n">
-        <v>2147.256757504167</v>
+        <v>1355.451354092939</v>
       </c>
       <c r="P42" t="n">
-        <v>2242.739235575142</v>
+        <v>1918.295872395896</v>
       </c>
       <c r="Q42" t="n">
         <v>2274.119265870534</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>425.3089085689222</v>
+        <v>941.0657045256701</v>
       </c>
       <c r="C43" t="n">
-        <v>255.1037906349114</v>
+        <v>770.8605865916593</v>
       </c>
       <c r="D43" t="n">
-        <v>255.1037906349114</v>
+        <v>615.2274734941741</v>
       </c>
       <c r="E43" t="n">
-        <v>212.9225358426096</v>
+        <v>459.6686613533765</v>
       </c>
       <c r="F43" t="n">
-        <v>212.9225358426096</v>
+        <v>302.3427265663495</v>
       </c>
       <c r="G43" t="n">
-        <v>45.48238531741069</v>
+        <v>302.3427265663495</v>
       </c>
       <c r="H43" t="n">
-        <v>45.48238531741069</v>
+        <v>154.1005164469136</v>
       </c>
       <c r="I43" t="n">
         <v>45.48238531741069</v>
@@ -7593,28 +7593,28 @@
         <v>1707.973078326791</v>
       </c>
       <c r="R43" t="n">
-        <v>1620.66814436399</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S43" t="n">
-        <v>1432.036176642509</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T43" t="n">
-        <v>1199.794711959989</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="U43" t="n">
-        <v>914.4003149314547</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="V43" t="n">
-        <v>648.4209697522789</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="W43" t="n">
-        <v>648.4209697522789</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="X43" t="n">
-        <v>648.4209697522789</v>
+        <v>1349.385784400328</v>
       </c>
       <c r="Y43" t="n">
-        <v>425.3089085689222</v>
+        <v>1126.273723216971</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1244.855336537431</v>
+        <v>1216.157770969565</v>
       </c>
       <c r="C44" t="n">
-        <v>1244.855336537431</v>
+        <v>1216.157770969565</v>
       </c>
       <c r="D44" t="n">
-        <v>859.4142077540987</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="E44" t="n">
-        <v>456.8306828706433</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="F44" t="n">
-        <v>456.8306828706433</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="G44" t="n">
-        <v>45.48238531741069</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="H44" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I44" t="n">
         <v>45.48238531741069</v>
@@ -7651,22 +7651,22 @@
         <v>341.0674123654735</v>
       </c>
       <c r="K44" t="n">
-        <v>425.6524132444051</v>
+        <v>903.9119306684307</v>
       </c>
       <c r="L44" t="n">
-        <v>554.5737315597923</v>
+        <v>1466.756448971388</v>
       </c>
       <c r="M44" t="n">
-        <v>718.6086730029797</v>
+        <v>1630.791390414575</v>
       </c>
       <c r="N44" t="n">
-        <v>888.2968467382104</v>
+        <v>1966.636790930565</v>
       </c>
       <c r="O44" t="n">
-        <v>1451.141365041168</v>
+        <v>2118.2006017878</v>
       </c>
       <c r="P44" t="n">
-        <v>1897.23188566828</v>
+        <v>2225.131157243437</v>
       </c>
       <c r="Q44" t="n">
         <v>2274.119265870534</v>
@@ -7678,22 +7678,22 @@
         <v>2148.952671546926</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.952671546926</v>
+        <v>1933.394858820833</v>
       </c>
       <c r="U44" t="n">
-        <v>2148.952671546926</v>
+        <v>1677.787285892133</v>
       </c>
       <c r="V44" t="n">
-        <v>2041.840791328227</v>
+        <v>1605.610376036509</v>
       </c>
       <c r="W44" t="n">
-        <v>2041.840791328227</v>
+        <v>1605.610376036509</v>
       </c>
       <c r="X44" t="n">
-        <v>2041.840791328227</v>
+        <v>1216.157770969565</v>
       </c>
       <c r="Y44" t="n">
-        <v>1645.350082248828</v>
+        <v>1216.157770969565</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>259.4547871306371</v>
       </c>
       <c r="G45" t="n">
-        <v>140.3657897980795</v>
+        <v>140.36578979808</v>
       </c>
       <c r="H45" t="n">
-        <v>61.44445651913553</v>
+        <v>61.44445651913603</v>
       </c>
       <c r="I45" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J45" t="n">
-        <v>248.4933708924599</v>
+        <v>178.0152615001796</v>
       </c>
       <c r="K45" t="n">
-        <v>313.4389930714536</v>
+        <v>651.4009957213998</v>
       </c>
       <c r="L45" t="n">
-        <v>876.2835113744109</v>
+        <v>768.8380512794881</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.908980374613</v>
+        <v>918.4635202796903</v>
       </c>
       <c r="N45" t="n">
-        <v>1588.75349867757</v>
+        <v>1081.414749415085</v>
       </c>
       <c r="O45" t="n">
-        <v>1723.379171350652</v>
+        <v>1644.259267718042</v>
       </c>
       <c r="P45" t="n">
-        <v>1882.660422841754</v>
+        <v>2207.103786020999</v>
       </c>
       <c r="Q45" t="n">
         <v>2238.483816316392</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>684.2053632767313</v>
+        <v>641.0274693677386</v>
       </c>
       <c r="C46" t="n">
-        <v>514.0002453427205</v>
+        <v>641.0274693677386</v>
       </c>
       <c r="D46" t="n">
-        <v>358.3671322452352</v>
+        <v>641.0274693677386</v>
       </c>
       <c r="E46" t="n">
-        <v>202.8083201044377</v>
+        <v>485.4686572269411</v>
       </c>
       <c r="F46" t="n">
-        <v>45.48238531741069</v>
+        <v>328.1427224399141</v>
       </c>
       <c r="G46" t="n">
-        <v>45.48238531741069</v>
+        <v>160.7025719147151</v>
       </c>
       <c r="H46" t="n">
         <v>45.48238531741069</v>
@@ -7833,25 +7833,25 @@
         <v>1707.973078326791</v>
       </c>
       <c r="S46" t="n">
-        <v>1643.899185359099</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="T46" t="n">
-        <v>1643.899185359099</v>
+        <v>1475.731613644271</v>
       </c>
       <c r="U46" t="n">
-        <v>1358.504788330565</v>
+        <v>1190.337216615737</v>
       </c>
       <c r="V46" t="n">
-        <v>1092.525443151389</v>
+        <v>924.3578714365609</v>
       </c>
       <c r="W46" t="n">
-        <v>1092.525443151389</v>
+        <v>641.0274693677386</v>
       </c>
       <c r="X46" t="n">
-        <v>1092.525443151389</v>
+        <v>641.0274693677386</v>
       </c>
       <c r="Y46" t="n">
-        <v>869.4133819680326</v>
+        <v>641.0274693677386</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>297.5017270402791</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>297.5017270402789</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>449.9065280251201</v>
       </c>
       <c r="M12" t="n">
-        <v>417.3929790936918</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>432.5442885150262</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>432.0610536700154</v>
+        <v>55.81005105602316</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>35.01840131561796</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>483.0904216404299</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>402.83795642401</v>
+        <v>402.8379564240101</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>6.575454073725581</v>
+        <v>225.8751560457206</v>
       </c>
       <c r="P14" t="n">
-        <v>460.5191543912334</v>
+        <v>460.5191543912335</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,22 +9011,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>12.1115535346061</v>
+        <v>33.63371015994939</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3929790936918</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>403.93261532077</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>454.1975695244587</v>
       </c>
       <c r="L17" t="n">
-        <v>438.306262613707</v>
+        <v>438.3062626137071</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>397.1276207754812</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>253.7983834717751</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>460.5191543912335</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>193.6622592443095</v>
+        <v>69.62911374999209</v>
       </c>
       <c r="N18" t="n">
-        <v>403.93261532077</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>432.5442885150262</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>35.01840131561797</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>483.09042164043</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>402.83795642401</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>203.5385866499562</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>415.4350580259812</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>199.7057740637113</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>27.29292927448104</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>449.9065280251201</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>156.3215009588122</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>403.93261532077</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>432.5442885150262</v>
+        <v>69.62911374999206</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>35.01840131561797</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,25 +9643,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>438.3062626137072</v>
       </c>
       <c r="M23" t="n">
-        <v>402.83795642401</v>
+        <v>402.8379564240101</v>
       </c>
       <c r="N23" t="n">
-        <v>74.23081768817406</v>
+        <v>397.1276207754813</v>
       </c>
       <c r="O23" t="n">
-        <v>415.4350580259812</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>460.5191543912334</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>114.7511467162008</v>
       </c>
       <c r="R23" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>108.1497661337916</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>449.9065280251201</v>
+        <v>449.9065280251202</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>192.9949670054895</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>472.082868921194</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9880,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>438.306262613707</v>
+        <v>438.3062626137072</v>
       </c>
       <c r="M26" t="n">
-        <v>402.83795642401</v>
+        <v>402.8379564240101</v>
       </c>
       <c r="N26" t="n">
-        <v>397.1276207754812</v>
+        <v>397.1276207754813</v>
       </c>
       <c r="O26" t="n">
-        <v>114.7511467162004</v>
+        <v>114.7511467162007</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>224.8304534802832</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>417.3929790936918</v>
+        <v>69.62911374999209</v>
       </c>
       <c r="N27" t="n">
-        <v>403.93261532077</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>432.5442885150262</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>35.01840131561796</v>
+        <v>35.01840131561797</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>483.09042164043</v>
       </c>
       <c r="L29" t="n">
-        <v>438.306262613707</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>253.7983834717752</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>397.1276207754812</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>409.4134104977358</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>460.5191543912335</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>246.352610105626</v>
+        <v>69.62911374999209</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>432.5442885150262</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>472.082868921194</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>35.01840131561796</v>
+        <v>35.01840131561797</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>483.0904216404299</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>438.306262613707</v>
+        <v>438.3062626137071</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>415.4350580259812</v>
       </c>
       <c r="P32" t="n">
-        <v>431.6263022752618</v>
+        <v>460.5191543912334</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>38.76251149847747</v>
       </c>
       <c r="R32" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>449.9065280251201</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>192.316904548855</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>403.93261532077</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>432.5442885150262</v>
+        <v>69.62911374999183</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>472.0828689211941</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>35.01840131561796</v>
+        <v>35.01840131561797</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>222.2770413129077</v>
       </c>
       <c r="L35" t="n">
-        <v>438.3062626137071</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>402.8379564240101</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>397.1276207754813</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>114.7511467162007</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>460.5191543912335</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>27.29292927448104</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,13 +10673,13 @@
         <v>449.9065280251202</v>
       </c>
       <c r="M36" t="n">
-        <v>192.3169045488552</v>
+        <v>417.392979093692</v>
       </c>
       <c r="N36" t="n">
         <v>403.9326153207701</v>
       </c>
       <c r="O36" t="n">
-        <v>432.5442885150263</v>
+        <v>207.4682139701894</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.01840131561796</v>
+        <v>35.01840131561797</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>483.09042164043</v>
       </c>
       <c r="L38" t="n">
-        <v>438.3062626137071</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>402.8379564240101</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>28.78834585125202</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>274.9304597910829</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>449.9065280251202</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>156.3215009588125</v>
+        <v>33.63371015994937</v>
       </c>
       <c r="N39" t="n">
-        <v>403.9326153207701</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>432.5442885150263</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,13 +11062,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>483.09042164043</v>
+        <v>222.2770413129077</v>
       </c>
       <c r="L41" t="n">
-        <v>438.3062626137071</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>167.8355826068268</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>460.5191543912335</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>27.29292927448104</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>28.1284383492456</v>
+        <v>69.6291137499921</v>
       </c>
       <c r="M42" t="n">
-        <v>417.3929790936919</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>403.9326153207701</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>432.5442885150263</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>35.01840131561796</v>
+        <v>35.01840131561797</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>483.09042164043</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>438.3062626137072</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>167.8355826068267</v>
       </c>
       <c r="O44" t="n">
-        <v>415.4350580259813</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>342.5858234055312</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>125.512005643886</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>449.9065280251202</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>403.9326153207701</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>432.5442885150263</v>
       </c>
       <c r="P45" t="n">
-        <v>64.44320547487592</v>
+        <v>472.0828689211942</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>335.4541793138005</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>407.2348145777002</v>
       </c>
       <c r="H11" t="n">
-        <v>302.4457255346815</v>
+        <v>16.44106279706227</v>
       </c>
       <c r="I11" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>149.9261478293168</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>86.43188462317242</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T13" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V13" t="n">
-        <v>167.8980407730083</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.73937269268384</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>302.4457255346815</v>
+        <v>119.9457475350178</v>
       </c>
       <c r="I14" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>253.0514971994132</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.68337806844281</v>
+        <v>62.18909325841514</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>186.745648044267</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>33.02698253069553</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>407.2348145777002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I17" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>123.9149283803722</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0514971994132</v>
@@ -23794,10 +23794,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>58.47032916297047</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>86.43188462317242</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>229.9190500356943</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V19" t="n">
-        <v>132.8859083414194</v>
+        <v>182.7395893935797</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>285.4193368823757</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H20" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T20" t="n">
         <v>213.4022345988317</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>92.99958825706017</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>107.5319498182078</v>
@@ -24186,16 +24186,16 @@
         <v>282.5404530582489</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>109.3273494359886</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>9.138271805925513</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>407.2348145777002</v>
       </c>
       <c r="H23" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>118.1920924350293</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>227.2848305501432</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,7 +24372,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24381,7 +24381,7 @@
         <v>165.7657490199469</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I25" t="n">
         <v>107.5319498182078</v>
@@ -24414,10 +24414,10 @@
         <v>86.43188462317242</v>
       </c>
       <c r="S25" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.2307268628699</v>
+        <v>49.77647440081236</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>101.6767132001394</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24457,13 +24457,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.119754389443322</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U26" t="n">
         <v>253.0514971994132</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,13 +24612,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.81384649990463</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I28" t="n">
         <v>107.5319498182078</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>86.43188462317242</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T28" t="n">
-        <v>229.9190500356943</v>
+        <v>90.14540900662666</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>230.9704980159682</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H29" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>92.4483852817792</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>196.2784118101074</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>49.77647440081236</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>407.2348145777002</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>17.5682634171373</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>338.8386616414722</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>150.1552919922945</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>12.19395212101765</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25162,7 +25162,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>123.9149283803722</v>
       </c>
       <c r="T35" t="n">
-        <v>213.4022345988317</v>
+        <v>156.1854143210207</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>38.89514382212832</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>151.3486187503267</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.29506635214111</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I37" t="n">
         <v>107.5319498182078</v>
@@ -25362,22 +25362,22 @@
         <v>86.43188462317242</v>
       </c>
       <c r="S37" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>407.2348145777002</v>
@@ -25411,7 +25411,7 @@
         <v>302.4457255346815</v>
       </c>
       <c r="I38" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>123.9149283803722</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>90.94527946615509</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>133.3982681674456</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>229.9190500356943</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5404530582489</v>
+        <v>246.9954923531526</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>134.8624285290838</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>302.4457255346815</v>
       </c>
       <c r="I41" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.4022345988317</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>135.5779826199483</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>135.6426571334524</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>112.2437817750107</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>86.43188462317242</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>63.48374605191597</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>232.6449797870045</v>
+        <v>267.2306004464484</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>146.7597880182415</v>
+        <v>32.69180328691014</v>
       </c>
       <c r="I46" t="n">
         <v>107.5319498182078</v>
@@ -26073,10 +26073,10 @@
         <v>86.43188462317242</v>
       </c>
       <c r="S46" t="n">
-        <v>123.3124940062524</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>548681.5341357418</v>
+        <v>548681.534135742</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>548681.534135742</v>
+        <v>548681.5341357419</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548681.5341357419</v>
+        <v>548681.5341357418</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>548681.5341357419</v>
+        <v>548681.5341357423</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548681.5341357418</v>
+        <v>548681.534135742</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>548681.5341357418</v>
+        <v>548681.5341357423</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548681.5341357419</v>
+        <v>548681.534135742</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>548681.5341357418</v>
+        <v>548681.5341357419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>539697.663944151</v>
+        <v>539697.6639441509</v>
       </c>
       <c r="C2" t="n">
-        <v>539697.6639441508</v>
+        <v>539697.6639441509</v>
       </c>
       <c r="D2" t="n">
         <v>539697.6639441508</v>
       </c>
       <c r="E2" t="n">
-        <v>359644.7868122148</v>
+        <v>359644.7868122144</v>
       </c>
       <c r="F2" t="n">
-        <v>359644.7868122146</v>
+        <v>359644.7868122145</v>
       </c>
       <c r="G2" t="n">
-        <v>359644.7868122146</v>
+        <v>359644.7868122145</v>
       </c>
       <c r="H2" t="n">
         <v>359644.7868122146</v>
@@ -26340,22 +26340,22 @@
         <v>359644.7868122147</v>
       </c>
       <c r="K2" t="n">
+        <v>359644.7868122147</v>
+      </c>
+      <c r="L2" t="n">
+        <v>359644.7868122147</v>
+      </c>
+      <c r="M2" t="n">
         <v>359644.7868122148</v>
       </c>
-      <c r="L2" t="n">
-        <v>359644.7868122145</v>
-      </c>
-      <c r="M2" t="n">
-        <v>359644.7868122147</v>
-      </c>
       <c r="N2" t="n">
-        <v>359644.7868122145</v>
+        <v>359644.7868122148</v>
       </c>
       <c r="O2" t="n">
         <v>359644.7868122146</v>
       </c>
       <c r="P2" t="n">
-        <v>359644.7868122147</v>
+        <v>359644.7868122146</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>141679.9043830002</v>
+        <v>141679.9043830001</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>373785.5528862592</v>
       </c>
       <c r="E4" t="n">
+        <v>69627.56607712175</v>
+      </c>
+      <c r="F4" t="n">
         <v>69627.56607712177</v>
       </c>
-      <c r="F4" t="n">
-        <v>69627.56607712174</v>
-      </c>
       <c r="G4" t="n">
-        <v>69627.56607712174</v>
+        <v>69627.56607712177</v>
       </c>
       <c r="H4" t="n">
         <v>69627.56607712177</v>
       </c>
       <c r="I4" t="n">
-        <v>69627.56607712174</v>
+        <v>69627.56607712177</v>
       </c>
       <c r="J4" t="n">
-        <v>69627.56607712175</v>
+        <v>69627.56607712178</v>
       </c>
       <c r="K4" t="n">
-        <v>69627.56607712175</v>
+        <v>69627.56607712177</v>
       </c>
       <c r="L4" t="n">
-        <v>69627.56607712175</v>
+        <v>69627.56607712177</v>
       </c>
       <c r="M4" t="n">
+        <v>69627.56607712178</v>
+      </c>
+      <c r="N4" t="n">
         <v>69627.56607712177</v>
       </c>
-      <c r="N4" t="n">
-        <v>69627.56607712178</v>
-      </c>
       <c r="O4" t="n">
-        <v>69627.56607712178</v>
+        <v>69627.56607712177</v>
       </c>
       <c r="P4" t="n">
         <v>69627.56607712177</v>
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816225</v>
       </c>
       <c r="F5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816227</v>
       </c>
       <c r="G5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816227</v>
       </c>
       <c r="H5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816227</v>
       </c>
       <c r="I5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816227</v>
       </c>
       <c r="J5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816227</v>
       </c>
       <c r="K5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816227</v>
       </c>
       <c r="L5" t="n">
-        <v>44307.57121816226</v>
+        <v>44307.57121816225</v>
       </c>
       <c r="M5" t="n">
         <v>44307.57121816227</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132284.5110578919</v>
+        <v>132280.1814901053</v>
       </c>
       <c r="C6" t="n">
-        <v>132284.5110578917</v>
+        <v>132280.1814901053</v>
       </c>
       <c r="D6" t="n">
-        <v>132284.5110578917</v>
+        <v>132280.1814901052</v>
       </c>
       <c r="E6" t="n">
-        <v>-283027.7810197923</v>
+        <v>-283632.2868446855</v>
       </c>
       <c r="F6" t="n">
-        <v>245709.6495169306</v>
+        <v>245105.1436920377</v>
       </c>
       <c r="G6" t="n">
-        <v>245709.6495169306</v>
+        <v>245105.1436920377</v>
       </c>
       <c r="H6" t="n">
-        <v>245709.6495169306</v>
+        <v>245105.1436920378</v>
       </c>
       <c r="I6" t="n">
-        <v>245709.6495169308</v>
+        <v>245105.143692038</v>
       </c>
       <c r="J6" t="n">
-        <v>245709.6495169307</v>
+        <v>245105.1436920378</v>
       </c>
       <c r="K6" t="n">
-        <v>245709.6495169308</v>
+        <v>245105.1436920378</v>
       </c>
       <c r="L6" t="n">
-        <v>245709.6495169305</v>
+        <v>245105.1436920378</v>
       </c>
       <c r="M6" t="n">
-        <v>104029.7451339305</v>
+        <v>103425.2393090377</v>
       </c>
       <c r="N6" t="n">
-        <v>245709.6495169305</v>
+        <v>245105.1436920379</v>
       </c>
       <c r="O6" t="n">
-        <v>245709.6495169306</v>
+        <v>245105.1436920378</v>
       </c>
       <c r="P6" t="n">
-        <v>245709.6495169307</v>
+        <v>245105.1436920378</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="F3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="G3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="H3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="I3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="J3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="K3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="L3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="M3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="N3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="O3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="P3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
     </row>
     <row r="4">
@@ -26801,22 +26801,22 @@
         <v>568.5298164676335</v>
       </c>
       <c r="F4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="G4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="H4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="I4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="J4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="K4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="L4" t="n">
         <v>568.5298164676335</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>446.8329530701901</v>
+        <v>446.83295307019</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I11" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J11" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K11" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L11" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M11" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N11" t="n">
         <v>320.5206870299364</v>
@@ -31788,13 +31788,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S11" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T11" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H12" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I12" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J12" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K12" t="n">
         <v>155.1985738979735</v>
@@ -31849,7 +31849,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M12" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N12" t="n">
         <v>249.9693140010302</v>
@@ -31864,13 +31864,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R12" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S12" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T12" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U12" t="n">
         <v>0.06323107826464956</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H13" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I13" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J13" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K13" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L13" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M13" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N13" t="n">
         <v>123.3039196562379</v>
@@ -31937,7 +31937,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P13" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q13" t="n">
         <v>67.47177591359869</v>
@@ -31949,10 +31949,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T13" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I14" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J14" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K14" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L14" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M14" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N14" t="n">
         <v>320.5206870299364</v>
@@ -32025,13 +32025,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S14" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T14" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H15" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I15" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J15" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K15" t="n">
         <v>155.1985738979735</v>
@@ -32086,7 +32086,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M15" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N15" t="n">
         <v>249.9693140010302</v>
@@ -32101,13 +32101,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R15" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S15" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T15" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U15" t="n">
         <v>0.06323107826464956</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H16" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I16" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J16" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K16" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L16" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M16" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N16" t="n">
         <v>123.3039196562379</v>
@@ -32174,7 +32174,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P16" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q16" t="n">
         <v>67.47177591359869</v>
@@ -32186,10 +32186,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T16" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I17" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J17" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K17" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L17" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M17" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N17" t="n">
         <v>320.5206870299364</v>
@@ -32262,13 +32262,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S17" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T17" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H18" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I18" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J18" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K18" t="n">
         <v>155.1985738979735</v>
@@ -32323,7 +32323,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M18" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N18" t="n">
         <v>249.9693140010302</v>
@@ -32338,13 +32338,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R18" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S18" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T18" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U18" t="n">
         <v>0.06323107826464956</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H19" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I19" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J19" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K19" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L19" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M19" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N19" t="n">
         <v>123.3039196562379</v>
@@ -32411,7 +32411,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P19" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q19" t="n">
         <v>67.47177591359869</v>
@@ -32423,10 +32423,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T19" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I20" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J20" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K20" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L20" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M20" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N20" t="n">
         <v>320.5206870299364</v>
@@ -32499,13 +32499,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S20" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T20" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H21" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I21" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J21" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K21" t="n">
         <v>155.1985738979735</v>
@@ -32560,7 +32560,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M21" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N21" t="n">
         <v>249.9693140010302</v>
@@ -32575,13 +32575,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R21" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S21" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T21" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U21" t="n">
         <v>0.06323107826464956</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H22" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I22" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J22" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K22" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L22" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M22" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N22" t="n">
         <v>123.3039196562379</v>
@@ -32648,7 +32648,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P22" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q22" t="n">
         <v>67.47177591359869</v>
@@ -32660,10 +32660,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T22" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I23" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J23" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K23" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L23" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M23" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N23" t="n">
         <v>320.5206870299364</v>
@@ -32736,13 +32736,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S23" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T23" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H24" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I24" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J24" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K24" t="n">
         <v>155.1985738979735</v>
@@ -32797,7 +32797,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M24" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N24" t="n">
         <v>249.9693140010302</v>
@@ -32812,13 +32812,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R24" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S24" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T24" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U24" t="n">
         <v>0.06323107826464956</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H25" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I25" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J25" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K25" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L25" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M25" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N25" t="n">
         <v>123.3039196562379</v>
@@ -32885,7 +32885,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P25" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q25" t="n">
         <v>67.47177591359869</v>
@@ -32897,10 +32897,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T25" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,19 +32943,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I26" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J26" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K26" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L26" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M26" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N26" t="n">
         <v>320.5206870299364</v>
@@ -32973,13 +32973,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S26" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T26" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H27" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I27" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J27" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K27" t="n">
         <v>155.1985738979735</v>
@@ -33034,7 +33034,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M27" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N27" t="n">
         <v>249.9693140010302</v>
@@ -33049,13 +33049,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R27" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S27" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T27" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U27" t="n">
         <v>0.06323107826464956</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H28" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I28" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J28" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K28" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L28" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M28" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N28" t="n">
         <v>123.3039196562379</v>
@@ -33122,7 +33122,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P28" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q28" t="n">
         <v>67.47177591359869</v>
@@ -33134,10 +33134,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T28" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,19 +33180,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I29" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J29" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K29" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L29" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M29" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N29" t="n">
         <v>320.5206870299364</v>
@@ -33210,13 +33210,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S29" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T29" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H30" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I30" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J30" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K30" t="n">
         <v>155.1985738979735</v>
@@ -33271,7 +33271,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M30" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N30" t="n">
         <v>249.9693140010302</v>
@@ -33286,13 +33286,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R30" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S30" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T30" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U30" t="n">
         <v>0.06323107826464956</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H31" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I31" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J31" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K31" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L31" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M31" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N31" t="n">
         <v>123.3039196562379</v>
@@ -33359,7 +33359,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P31" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q31" t="n">
         <v>67.47177591359869</v>
@@ -33371,10 +33371,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T31" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,19 +33417,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I32" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J32" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K32" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L32" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M32" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N32" t="n">
         <v>320.5206870299364</v>
@@ -33447,13 +33447,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S32" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T32" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H33" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I33" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J33" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K33" t="n">
         <v>155.1985738979735</v>
@@ -33508,7 +33508,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M33" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N33" t="n">
         <v>249.9693140010302</v>
@@ -33523,13 +33523,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R33" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S33" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T33" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U33" t="n">
         <v>0.06323107826464956</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H34" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I34" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J34" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K34" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L34" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M34" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N34" t="n">
         <v>123.3039196562379</v>
@@ -33596,7 +33596,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P34" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q34" t="n">
         <v>67.47177591359869</v>
@@ -33608,10 +33608,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T34" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,19 +33654,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I35" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J35" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K35" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L35" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M35" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N35" t="n">
         <v>320.5206870299364</v>
@@ -33684,13 +33684,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S35" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T35" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H36" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I36" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J36" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K36" t="n">
         <v>155.1985738979735</v>
@@ -33745,7 +33745,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M36" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N36" t="n">
         <v>249.9693140010302</v>
@@ -33760,13 +33760,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R36" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S36" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T36" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U36" t="n">
         <v>0.06323107826464956</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H37" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I37" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J37" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K37" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L37" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M37" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N37" t="n">
         <v>123.3039196562379</v>
@@ -33833,7 +33833,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P37" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q37" t="n">
         <v>67.47177591359869</v>
@@ -33845,10 +33845,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T37" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,19 +33891,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I38" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J38" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K38" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L38" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M38" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N38" t="n">
         <v>320.5206870299364</v>
@@ -33921,13 +33921,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S38" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T38" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H39" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I39" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J39" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K39" t="n">
         <v>155.1985738979735</v>
@@ -33982,7 +33982,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M39" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N39" t="n">
         <v>249.9693140010302</v>
@@ -33997,13 +33997,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R39" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S39" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T39" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U39" t="n">
         <v>0.06323107826464956</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H40" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I40" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J40" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K40" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L40" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M40" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N40" t="n">
         <v>123.3039196562379</v>
@@ -34070,7 +34070,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P40" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q40" t="n">
         <v>67.47177591359869</v>
@@ -34082,10 +34082,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T40" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,19 +34128,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I41" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J41" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K41" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L41" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M41" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N41" t="n">
         <v>320.5206870299364</v>
@@ -34158,13 +34158,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S41" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T41" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H42" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I42" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J42" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K42" t="n">
         <v>155.1985738979735</v>
@@ -34219,7 +34219,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M42" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N42" t="n">
         <v>249.9693140010302</v>
@@ -34234,13 +34234,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R42" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S42" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T42" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U42" t="n">
         <v>0.06323107826464956</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H43" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I43" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J43" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K43" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L43" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M43" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N43" t="n">
         <v>123.3039196562379</v>
@@ -34307,7 +34307,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P43" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q43" t="n">
         <v>67.47177591359869</v>
@@ -34319,10 +34319,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T43" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,19 +34365,19 @@
         <v>18.39649439449279</v>
       </c>
       <c r="I44" t="n">
-        <v>69.25237155070757</v>
+        <v>69.25237155070755</v>
       </c>
       <c r="J44" t="n">
-        <v>152.4598526658937</v>
+        <v>152.4598526658936</v>
       </c>
       <c r="K44" t="n">
-        <v>228.497798006441</v>
+        <v>228.4977980064409</v>
       </c>
       <c r="L44" t="n">
         <v>283.4717235844182</v>
       </c>
       <c r="M44" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413507</v>
       </c>
       <c r="N44" t="n">
         <v>320.5206870299364</v>
@@ -34395,13 +34395,13 @@
         <v>112.8376703047048</v>
       </c>
       <c r="S44" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798776</v>
       </c>
       <c r="T44" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345754</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1437050703341314</v>
+        <v>0.1437050703341313</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226729</v>
       </c>
       <c r="H45" t="n">
         <v>9.282322289250553</v>
       </c>
       <c r="I45" t="n">
-        <v>33.09093095849993</v>
+        <v>33.09093095849992</v>
       </c>
       <c r="J45" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325438</v>
       </c>
       <c r="K45" t="n">
         <v>155.1985738979735</v>
@@ -34456,7 +34456,7 @@
         <v>208.6836352994317</v>
       </c>
       <c r="M45" t="n">
-        <v>243.5239594232536</v>
+        <v>243.5239594232535</v>
       </c>
       <c r="N45" t="n">
         <v>249.9693140010302</v>
@@ -34471,13 +34471,13 @@
         <v>122.6851534542907</v>
       </c>
       <c r="R45" t="n">
-        <v>59.67327626095862</v>
+        <v>59.67327626095861</v>
       </c>
       <c r="S45" t="n">
         <v>17.85224109671937</v>
       </c>
       <c r="T45" t="n">
-        <v>3.873957395014194</v>
+        <v>3.873957395014193</v>
       </c>
       <c r="U45" t="n">
         <v>0.06323107826464956</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019818</v>
       </c>
       <c r="H46" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879444</v>
       </c>
       <c r="I46" t="n">
-        <v>24.23153129108507</v>
+        <v>24.23153129108506</v>
       </c>
       <c r="J46" t="n">
         <v>56.96753895126012</v>
       </c>
       <c r="K46" t="n">
-        <v>93.61516623339389</v>
+        <v>93.61516623339388</v>
       </c>
       <c r="L46" t="n">
         <v>119.7951822050801</v>
       </c>
       <c r="M46" t="n">
-        <v>126.3072231112998</v>
+        <v>126.3072231112997</v>
       </c>
       <c r="N46" t="n">
         <v>123.3039196562379</v>
@@ -34544,7 +34544,7 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P46" t="n">
-        <v>97.45353455157058</v>
+        <v>97.45353455157057</v>
       </c>
       <c r="Q46" t="n">
         <v>67.47177591359869</v>
@@ -34556,10 +34556,10 @@
         <v>14.04227493500908</v>
       </c>
       <c r="T46" t="n">
-        <v>3.442811277753922</v>
+        <v>3.442811277753921</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04395078226919907</v>
+        <v>0.04395078226919906</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>298.5707343919827</v>
+        <v>298.5707343919826</v>
       </c>
       <c r="K11" t="n">
-        <v>85.43939482720361</v>
+        <v>382.9411218674827</v>
       </c>
       <c r="L11" t="n">
         <v>130.2235538539265</v>
@@ -35421,7 +35421,7 @@
         <v>165.6918600436235</v>
       </c>
       <c r="N11" t="n">
-        <v>468.9039227324312</v>
+        <v>171.4021956921523</v>
       </c>
       <c r="O11" t="n">
         <v>153.0947584416523</v>
@@ -35491,28 +35491,28 @@
         <v>205.0616015909588</v>
       </c>
       <c r="K12" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L12" t="n">
-        <v>118.6232884425135</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="M12" t="n">
-        <v>568.5298164676335</v>
+        <v>151.1368373739416</v>
       </c>
       <c r="N12" t="n">
         <v>164.5972011468635</v>
       </c>
       <c r="O12" t="n">
-        <v>568.5298164676335</v>
+        <v>135.9855279526073</v>
       </c>
       <c r="P12" t="n">
-        <v>528.5080012164549</v>
+        <v>152.2569986024626</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.99540359004251</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919826</v>
       </c>
       <c r="K14" t="n">
-        <v>568.5298164676335</v>
+        <v>85.43939482720359</v>
       </c>
       <c r="L14" t="n">
         <v>130.2235538539265</v>
       </c>
       <c r="M14" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="N14" t="n">
         <v>171.4021956921523</v>
       </c>
       <c r="O14" t="n">
-        <v>159.6702125153779</v>
+        <v>378.9699144873729</v>
       </c>
       <c r="P14" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q14" t="n">
         <v>49.48293800716957</v>
@@ -35731,22 +35731,22 @@
         <v>478.1674083042628</v>
       </c>
       <c r="L15" t="n">
-        <v>130.7348419771196</v>
+        <v>152.2569986024628</v>
       </c>
       <c r="M15" t="n">
-        <v>568.5298164676335</v>
+        <v>151.1368373739416</v>
       </c>
       <c r="N15" t="n">
-        <v>568.5298164676335</v>
+        <v>164.5972011468635</v>
       </c>
       <c r="O15" t="n">
-        <v>135.9855279526074</v>
+        <v>135.9855279526073</v>
       </c>
       <c r="P15" t="n">
-        <v>96.44694754643947</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R15" t="n">
         <v>35.99540359004251</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>298.5707343919827</v>
+        <v>34.78001472354754</v>
       </c>
       <c r="K17" t="n">
-        <v>85.43939482720361</v>
+        <v>539.6369643516623</v>
       </c>
       <c r="L17" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="M17" t="n">
         <v>165.6918600436235</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5298164676335</v>
+        <v>171.4021956921523</v>
       </c>
       <c r="O17" t="n">
-        <v>406.8931419134274</v>
+        <v>153.0947584416523</v>
       </c>
       <c r="P17" t="n">
-        <v>108.0106620764001</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q17" t="n">
         <v>49.48293800716957</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K18" t="n">
         <v>478.1674083042628</v>
       </c>
       <c r="L18" t="n">
-        <v>118.6232884425135</v>
+        <v>118.6232884425134</v>
       </c>
       <c r="M18" t="n">
-        <v>344.7990966182512</v>
+        <v>220.7659511239337</v>
       </c>
       <c r="N18" t="n">
-        <v>568.5298164676335</v>
+        <v>164.5972011468635</v>
       </c>
       <c r="O18" t="n">
-        <v>568.5298164676335</v>
+        <v>135.9855279526073</v>
       </c>
       <c r="P18" t="n">
-        <v>96.44694754643947</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R18" t="n">
-        <v>35.99540359004251</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919826</v>
       </c>
       <c r="K20" t="n">
-        <v>85.43939482720361</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="L20" t="n">
         <v>130.2235538539265</v>
       </c>
       <c r="M20" t="n">
-        <v>568.5298164676335</v>
+        <v>165.6918600436235</v>
       </c>
       <c r="N20" t="n">
-        <v>374.9407823421085</v>
+        <v>171.4021956921523</v>
       </c>
       <c r="O20" t="n">
-        <v>568.5298164676335</v>
+        <v>153.0947584416523</v>
       </c>
       <c r="P20" t="n">
-        <v>108.0106620764001</v>
+        <v>307.7164361401114</v>
       </c>
       <c r="Q20" t="n">
         <v>380.6943234366208</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>75.22468572737155</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K21" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L21" t="n">
-        <v>568.5298164676335</v>
+        <v>118.6232884425134</v>
       </c>
       <c r="M21" t="n">
-        <v>307.4583383327539</v>
+        <v>151.1368373739416</v>
       </c>
       <c r="N21" t="n">
-        <v>568.5298164676335</v>
+        <v>164.5972011468635</v>
       </c>
       <c r="O21" t="n">
-        <v>568.5298164676335</v>
+        <v>205.6146417025994</v>
       </c>
       <c r="P21" t="n">
-        <v>96.44694754643947</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R21" t="n">
-        <v>35.99540359004251</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>34.78001472354757</v>
+        <v>34.78001472354754</v>
       </c>
       <c r="K23" t="n">
-        <v>85.43939482720361</v>
+        <v>85.43939482720359</v>
       </c>
       <c r="L23" t="n">
-        <v>130.2235538539265</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="M23" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="N23" t="n">
-        <v>245.6330133803264</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="O23" t="n">
-        <v>568.5298164676335</v>
+        <v>153.0947584416523</v>
       </c>
       <c r="P23" t="n">
-        <v>568.5298164676335</v>
+        <v>108.0106620764001</v>
       </c>
       <c r="Q23" t="n">
-        <v>49.48293800716957</v>
+        <v>164.2340847233704</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.359586459921047</v>
+        <v>116.5093525937126</v>
       </c>
       <c r="K24" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L24" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="M24" t="n">
-        <v>151.1368373739417</v>
+        <v>151.1368373739416</v>
       </c>
       <c r="N24" t="n">
-        <v>357.5921681523531</v>
+        <v>164.5972011468635</v>
       </c>
       <c r="O24" t="n">
-        <v>135.9855279526074</v>
+        <v>135.9855279526073</v>
       </c>
       <c r="P24" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q24" t="n">
-        <v>359.4175691663013</v>
+        <v>31.69700029837668</v>
       </c>
       <c r="R24" t="n">
         <v>35.99540359004251</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.78001472354757</v>
+        <v>34.78001472354754</v>
       </c>
       <c r="K26" t="n">
-        <v>85.43939482720361</v>
+        <v>85.43939482720359</v>
       </c>
       <c r="L26" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="M26" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="N26" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="O26" t="n">
-        <v>267.8459051578527</v>
+        <v>267.8459051578529</v>
       </c>
       <c r="P26" t="n">
         <v>108.0106620764001</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K27" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L27" t="n">
-        <v>343.4537419227966</v>
+        <v>118.6232884425134</v>
       </c>
       <c r="M27" t="n">
-        <v>568.5298164676335</v>
+        <v>220.7659511239337</v>
       </c>
       <c r="N27" t="n">
-        <v>568.5298164676335</v>
+        <v>164.5972011468635</v>
       </c>
       <c r="O27" t="n">
-        <v>568.5298164676335</v>
+        <v>135.9855279526073</v>
       </c>
       <c r="P27" t="n">
-        <v>96.44694754643947</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>298.5707343919827</v>
+        <v>34.78001472354754</v>
       </c>
       <c r="K29" t="n">
-        <v>85.43939482720361</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="L29" t="n">
-        <v>568.5298164676335</v>
+        <v>130.2235538539265</v>
       </c>
       <c r="M29" t="n">
-        <v>419.4902435153987</v>
+        <v>165.6918600436235</v>
       </c>
       <c r="N29" t="n">
-        <v>568.5298164676335</v>
+        <v>171.4021956921523</v>
       </c>
       <c r="O29" t="n">
-        <v>153.0947584416523</v>
+        <v>562.508168939388</v>
       </c>
       <c r="P29" t="n">
-        <v>108.0106620764001</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q29" t="n">
         <v>49.48293800716957</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L30" t="n">
-        <v>118.6232884425135</v>
+        <v>118.6232884425134</v>
       </c>
       <c r="M30" t="n">
-        <v>397.4894474795677</v>
+        <v>220.7659511239337</v>
       </c>
       <c r="N30" t="n">
         <v>164.5972011468635</v>
       </c>
       <c r="O30" t="n">
-        <v>568.5298164676335</v>
+        <v>135.9855279526073</v>
       </c>
       <c r="P30" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q30" t="n">
         <v>359.4175691663013</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>34.78001472354757</v>
+        <v>34.78001472354754</v>
       </c>
       <c r="K32" t="n">
-        <v>568.5298164676335</v>
+        <v>85.43939482720359</v>
       </c>
       <c r="L32" t="n">
         <v>568.5298164676335</v>
@@ -37083,13 +37083,13 @@
         <v>171.4021956921523</v>
       </c>
       <c r="O32" t="n">
-        <v>153.0947584416523</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="P32" t="n">
-        <v>539.6369643516618</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.48293800716957</v>
+        <v>88.24544950564703</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K33" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L33" t="n">
+        <v>118.6232884425134</v>
+      </c>
+      <c r="M33" t="n">
+        <v>151.1368373739416</v>
+      </c>
+      <c r="N33" t="n">
+        <v>164.5972011468635</v>
+      </c>
+      <c r="O33" t="n">
+        <v>205.6146417025991</v>
+      </c>
+      <c r="P33" t="n">
         <v>568.5298164676335</v>
       </c>
-      <c r="M33" t="n">
-        <v>343.4537419227966</v>
-      </c>
-      <c r="N33" t="n">
-        <v>568.5298164676335</v>
-      </c>
-      <c r="O33" t="n">
-        <v>568.5298164676335</v>
-      </c>
-      <c r="P33" t="n">
-        <v>96.44694754643947</v>
-      </c>
       <c r="Q33" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919826</v>
       </c>
       <c r="K35" t="n">
-        <v>85.43939482720361</v>
+        <v>307.7164361401113</v>
       </c>
       <c r="L35" t="n">
+        <v>130.2235538539265</v>
+      </c>
+      <c r="M35" t="n">
+        <v>165.6918600436235</v>
+      </c>
+      <c r="N35" t="n">
+        <v>171.4021956921523</v>
+      </c>
+      <c r="O35" t="n">
+        <v>153.0947584416523</v>
+      </c>
+      <c r="P35" t="n">
         <v>568.5298164676336</v>
       </c>
-      <c r="M35" t="n">
-        <v>568.5298164676336</v>
-      </c>
-      <c r="N35" t="n">
-        <v>568.5298164676336</v>
-      </c>
-      <c r="O35" t="n">
-        <v>267.8459051578529</v>
-      </c>
-      <c r="P35" t="n">
-        <v>108.0106620764001</v>
-      </c>
       <c r="Q35" t="n">
-        <v>49.48293800716957</v>
+        <v>380.6943234366208</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>75.22468572737155</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.359586459921047</v>
+        <v>8.359586459921033</v>
       </c>
       <c r="K36" t="n">
-        <v>65.60163856464014</v>
+        <v>65.60163856464011</v>
       </c>
       <c r="L36" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="M36" t="n">
-        <v>343.4537419227968</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="N36" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="O36" t="n">
-        <v>568.5298164676336</v>
+        <v>343.4537419227967</v>
       </c>
       <c r="P36" t="n">
-        <v>96.44694754643947</v>
+        <v>96.44694754643945</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.69700029837669</v>
+        <v>31.69700029837668</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919826</v>
       </c>
       <c r="K38" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="L38" t="n">
-        <v>568.5298164676336</v>
+        <v>130.2235538539265</v>
       </c>
       <c r="M38" t="n">
-        <v>568.5298164676336</v>
+        <v>165.6918600436235</v>
       </c>
       <c r="N38" t="n">
-        <v>200.1905415434044</v>
+        <v>171.4021956921523</v>
       </c>
       <c r="O38" t="n">
         <v>153.0947584416523</v>
       </c>
       <c r="P38" t="n">
-        <v>108.0106620764001</v>
+        <v>382.941121867483</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.48293800716957</v>
+        <v>380.6943234366208</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K39" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L39" t="n">
+        <v>118.6232884425134</v>
+      </c>
+      <c r="M39" t="n">
+        <v>184.770547533891</v>
+      </c>
+      <c r="N39" t="n">
+        <v>164.5972011468635</v>
+      </c>
+      <c r="O39" t="n">
+        <v>135.9855279526073</v>
+      </c>
+      <c r="P39" t="n">
         <v>568.5298164676336</v>
       </c>
-      <c r="M39" t="n">
-        <v>307.4583383327541</v>
-      </c>
-      <c r="N39" t="n">
-        <v>568.5298164676336</v>
-      </c>
-      <c r="O39" t="n">
-        <v>568.5298164676336</v>
-      </c>
-      <c r="P39" t="n">
-        <v>96.44694754643947</v>
-      </c>
       <c r="Q39" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R39" t="n">
         <v>35.99540359004251</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>298.5707343919827</v>
+        <v>298.5707343919826</v>
       </c>
       <c r="K41" t="n">
-        <v>568.5298164676336</v>
+        <v>307.7164361401113</v>
       </c>
       <c r="L41" t="n">
-        <v>568.5298164676336</v>
+        <v>130.2235538539265</v>
       </c>
       <c r="M41" t="n">
-        <v>333.5274426504503</v>
+        <v>165.6918600436235</v>
       </c>
       <c r="N41" t="n">
         <v>171.4021956921523</v>
@@ -37797,13 +37797,13 @@
         <v>153.0947584416523</v>
       </c>
       <c r="P41" t="n">
-        <v>108.0106620764001</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q41" t="n">
-        <v>49.48293800716957</v>
+        <v>380.6943234366208</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>75.22468572737155</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>205.0616015909588</v>
       </c>
       <c r="K42" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L42" t="n">
-        <v>146.7517267917591</v>
+        <v>188.2524021925055</v>
       </c>
       <c r="M42" t="n">
+        <v>151.1368373739416</v>
+      </c>
+      <c r="N42" t="n">
+        <v>164.5972011468635</v>
+      </c>
+      <c r="O42" t="n">
+        <v>135.9855279526073</v>
+      </c>
+      <c r="P42" t="n">
         <v>568.5298164676336</v>
       </c>
-      <c r="N42" t="n">
-        <v>568.5298164676336</v>
-      </c>
-      <c r="O42" t="n">
-        <v>568.5298164676336</v>
-      </c>
-      <c r="P42" t="n">
-        <v>96.44694754643947</v>
-      </c>
       <c r="Q42" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>298.5707343919827</v>
+        <v>298.5707343919826</v>
       </c>
       <c r="K44" t="n">
-        <v>85.43939482720361</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="L44" t="n">
-        <v>130.2235538539265</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="M44" t="n">
         <v>165.6918600436235</v>
       </c>
       <c r="N44" t="n">
-        <v>171.4021956921523</v>
+        <v>339.237778298979</v>
       </c>
       <c r="O44" t="n">
-        <v>568.5298164676336</v>
+        <v>153.0947584416523</v>
       </c>
       <c r="P44" t="n">
-        <v>450.5964854819313</v>
+        <v>108.0106620764001</v>
       </c>
       <c r="Q44" t="n">
-        <v>380.6943234366208</v>
+        <v>49.48293800716957</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>205.0616015909588</v>
+        <v>133.871592103807</v>
       </c>
       <c r="K45" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L45" t="n">
+        <v>118.6232884425134</v>
+      </c>
+      <c r="M45" t="n">
+        <v>151.1368373739416</v>
+      </c>
+      <c r="N45" t="n">
+        <v>164.5972011468635</v>
+      </c>
+      <c r="O45" t="n">
         <v>568.5298164676336</v>
       </c>
-      <c r="M45" t="n">
-        <v>151.1368373739417</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>568.5298164676336</v>
       </c>
-      <c r="O45" t="n">
-        <v>135.9855279526074</v>
-      </c>
-      <c r="P45" t="n">
-        <v>160.8901530213154</v>
-      </c>
       <c r="Q45" t="n">
-        <v>359.4175691663013</v>
+        <v>31.69700029837668</v>
       </c>
       <c r="R45" t="n">
         <v>35.99540359004251</v>
